--- a/Results Reported/0 Compiled Results for Manuscript.xlsx
+++ b/Results Reported/0 Compiled Results for Manuscript.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11102"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tigermailauburn-my.sharepoint.com/personal/bzm0094_auburn_edu/Documents/Collaboration/Ngbede M/Agrivoltaics-alabama/Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/bmishra36_gatech_edu/Documents/AVAlabama/Results Reported/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2873" documentId="11_F25DC773A252ABDACC1048E1719A46A65ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB80A8CB-C2FF-424E-AA1D-B7C695FFBA66}"/>
+  <xr:revisionPtr revIDLastSave="2874" documentId="11_F25DC773A252ABDACC1048E1719A46A65ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78401359-8F7C-B143-97B3-2A1B6A1577EF}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33600" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TAV" sheetId="1" r:id="rId1"/>
@@ -1038,36 +1038,6 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1095,15 +1065,6 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1116,9 +1077,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1128,9 +1086,6 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1142,16 +1097,37 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1161,8 +1137,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="180" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2506,6 +2506,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2513,7 +2514,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -13660,123 +13660,123 @@
   <dimension ref="A1:BF29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="6.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="7.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="15" max="21" width="8.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="8.85546875" style="28"/>
-    <col min="24" max="24" width="9.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10" style="28" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="29" max="34" width="4.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="35" max="42" width="7" style="28" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="7" style="28" bestFit="1" customWidth="1"/>
-    <col min="46" max="58" width="8.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="59" max="16384" width="8.85546875" style="28"/>
+    <col min="1" max="1" width="8.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="5.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="6.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="21" width="7.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="8.83203125" style="28"/>
+    <col min="24" max="24" width="10.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="29" max="34" width="4.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="35" max="42" width="6.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="6.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="46" max="58" width="7.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="59" max="16384" width="8.83203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="B1" s="44" t="s">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="B1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="45" t="s">
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44" t="s">
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44" t="s">
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44" t="s">
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44" t="s">
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
       <c r="X1" s="37"/>
-      <c r="Y1" s="44" t="s">
+      <c r="Y1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44" t="s">
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44" t="s">
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44" t="s">
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="73"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44" t="s">
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="73"/>
+      <c r="AU1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="44"/>
-      <c r="BA1" s="44" t="s">
+      <c r="AV1" s="73"/>
+      <c r="AW1" s="73"/>
+      <c r="AX1" s="73"/>
+      <c r="AY1" s="73"/>
+      <c r="AZ1" s="73"/>
+      <c r="BA1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="44"/>
-      <c r="BC1" s="44"/>
-      <c r="BD1" s="44"/>
-      <c r="BE1" s="44"/>
-      <c r="BF1" s="44"/>
+      <c r="BB1" s="73"/>
+      <c r="BC1" s="73"/>
+      <c r="BD1" s="73"/>
+      <c r="BE1" s="73"/>
+      <c r="BF1" s="73"/>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="B2" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -13823,64 +13823,64 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="X2" s="37"/>
-      <c r="Y2" s="47" t="s">
+      <c r="Y2" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="46" t="s">
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46" t="s">
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46" t="s">
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="46" t="s">
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="AM2" s="46"/>
-      <c r="AN2" s="46"/>
-      <c r="AO2" s="46" t="s">
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="AP2" s="46"/>
-      <c r="AQ2" s="46"/>
-      <c r="AR2" s="46" t="s">
+      <c r="AP2" s="72"/>
+      <c r="AQ2" s="72"/>
+      <c r="AR2" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="46" t="s">
+      <c r="AS2" s="72"/>
+      <c r="AT2" s="72"/>
+      <c r="AU2" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="AV2" s="46"/>
-      <c r="AW2" s="46"/>
-      <c r="AX2" s="46" t="s">
+      <c r="AV2" s="72"/>
+      <c r="AW2" s="72"/>
+      <c r="AX2" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="46"/>
-      <c r="BA2" s="46" t="s">
+      <c r="AY2" s="72"/>
+      <c r="AZ2" s="72"/>
+      <c r="BA2" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="BB2" s="46"/>
-      <c r="BC2" s="46"/>
-      <c r="BD2" s="46" t="s">
+      <c r="BB2" s="72"/>
+      <c r="BC2" s="72"/>
+      <c r="BD2" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="BE2" s="46"/>
-      <c r="BF2" s="46"/>
+      <c r="BE2" s="72"/>
+      <c r="BF2" s="72"/>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
         <v>18</v>
       </c>
@@ -13899,30 +13899,30 @@
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
       <c r="X3" s="37"/>
-      <c r="Y3" s="44" t="s">
+      <c r="Y3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
       <c r="AC3" s="2">
         <v>4.5999999999999996</v>
       </c>
@@ -14014,7 +14014,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A4" s="29">
         <v>0.5</v>
       </c>
@@ -14124,7 +14124,7 @@
       <c r="BE4" s="41"/>
       <c r="BF4" s="42"/>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A5" s="29">
         <v>0.5</v>
       </c>
@@ -14324,7 +14324,7 @@
         <v>-21825</v>
       </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A6" s="29">
         <v>0.5</v>
       </c>
@@ -14524,7 +14524,7 @@
         <v>-21825</v>
       </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A7" s="29">
         <v>0.5</v>
       </c>
@@ -14724,7 +14724,7 @@
         <v>-21825</v>
       </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A8" s="29">
         <v>0.5</v>
       </c>
@@ -14924,7 +14924,7 @@
         <v>-21824</v>
       </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A9" s="29">
         <v>0.5</v>
       </c>
@@ -15006,7 +15006,7 @@
       <c r="AY9" s="34"/>
       <c r="AZ9" s="34"/>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A10" s="29">
         <v>0.5</v>
       </c>
@@ -15088,7 +15088,7 @@
       <c r="AY10" s="34"/>
       <c r="AZ10" s="34"/>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A11" s="29">
         <v>0.5</v>
       </c>
@@ -15170,7 +15170,7 @@
       <c r="AY11" s="34"/>
       <c r="AZ11" s="34"/>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A12" s="29">
         <v>0.25</v>
       </c>
@@ -15252,7 +15252,7 @@
       <c r="AY12" s="34"/>
       <c r="AZ12" s="34"/>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A13" s="29">
         <v>0.25</v>
       </c>
@@ -15317,7 +15317,7 @@
         <v>-9441</v>
       </c>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A14" s="29">
         <v>0.25</v>
       </c>
@@ -15382,7 +15382,7 @@
         <v>-8809</v>
       </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A15" s="29">
         <v>0.25</v>
       </c>
@@ -15447,7 +15447,7 @@
         <v>-8578</v>
       </c>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A16" s="29">
         <v>0.25</v>
       </c>
@@ -15512,7 +15512,7 @@
         <v>-2132</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="29">
         <v>0.25</v>
       </c>
@@ -15577,7 +15577,7 @@
         <v>-681</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="29">
         <v>0.25</v>
       </c>
@@ -15642,7 +15642,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="29">
         <v>0.25</v>
       </c>
@@ -15707,7 +15707,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
@@ -15787,7 +15787,7 @@
         <v>-24101</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -15867,7 +15867,7 @@
         <v>-24100</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -15947,7 +15947,7 @@
         <v>-24101</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
@@ -16027,7 +16027,7 @@
         <v>-24100</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
@@ -16107,7 +16107,7 @@
         <v>-21825</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
@@ -16187,7 +16187,7 @@
         <v>-21825</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
@@ -16267,7 +16267,7 @@
         <v>-21825</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
@@ -16347,11 +16347,27 @@
         <v>-21824</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="G29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G3:U3"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="Y3:AB3"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="Y1:AB1"/>
     <mergeCell ref="BD2:BF2"/>
     <mergeCell ref="BA1:BF1"/>
     <mergeCell ref="AU1:AZ1"/>
@@ -16362,22 +16378,6 @@
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="AU2:AW2"/>
     <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="Y3:AB3"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AL2:AN2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="Y1:AB1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G3:U3"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="57" orientation="landscape" r:id="rId1"/>
@@ -16393,121 +16393,121 @@
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="6.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="7.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="7.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="15" max="21" width="8.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.85546875" style="28"/>
-    <col min="23" max="23" width="12.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="6.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="7.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="21" width="8.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.83203125" style="28"/>
+    <col min="23" max="23" width="12.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" style="28" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="16" style="28" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="28" max="33" width="4.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="34" max="41" width="7.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="8.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="7.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="45" max="57" width="8.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="58" max="16384" width="8.85546875" style="28"/>
+    <col min="27" max="27" width="19.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="28" max="33" width="4.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="34" max="41" width="7.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="7.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="45" max="57" width="8.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="58" max="16384" width="8.83203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B1" s="44" t="s">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="B1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="45" t="s">
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44" t="s">
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44" t="s">
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44" t="s">
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44" t="s">
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
       <c r="W1" s="37"/>
-      <c r="X1" s="44" t="s">
+      <c r="X1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44" t="s">
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44" t="s">
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44" t="s">
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="73"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44" t="s">
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="44" t="s">
+      <c r="AU1" s="73"/>
+      <c r="AV1" s="73"/>
+      <c r="AW1" s="73"/>
+      <c r="AX1" s="73"/>
+      <c r="AY1" s="73"/>
+      <c r="AZ1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="BA1" s="44"/>
-      <c r="BB1" s="44"/>
-      <c r="BC1" s="44"/>
-      <c r="BD1" s="44"/>
-      <c r="BE1" s="44"/>
+      <c r="BA1" s="73"/>
+      <c r="BB1" s="73"/>
+      <c r="BC1" s="73"/>
+      <c r="BD1" s="73"/>
+      <c r="BE1" s="73"/>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="B2" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -16554,64 +16554,64 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="W2" s="37"/>
-      <c r="X2" s="46" t="s">
+      <c r="X2" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46" t="s">
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46" t="s">
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46" t="s">
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46" t="s">
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="46"/>
-      <c r="AN2" s="46" t="s">
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="46"/>
-      <c r="AQ2" s="46" t="s">
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="72"/>
+      <c r="AQ2" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="46" t="s">
+      <c r="AR2" s="72"/>
+      <c r="AS2" s="72"/>
+      <c r="AT2" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="AU2" s="46"/>
-      <c r="AV2" s="46"/>
-      <c r="AW2" s="46" t="s">
+      <c r="AU2" s="72"/>
+      <c r="AV2" s="72"/>
+      <c r="AW2" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="AX2" s="46"/>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="46" t="s">
+      <c r="AX2" s="72"/>
+      <c r="AY2" s="72"/>
+      <c r="AZ2" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="BA2" s="46"/>
-      <c r="BB2" s="46"/>
-      <c r="BC2" s="46" t="s">
+      <c r="BA2" s="72"/>
+      <c r="BB2" s="72"/>
+      <c r="BC2" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="BD2" s="46"/>
-      <c r="BE2" s="46"/>
+      <c r="BD2" s="72"/>
+      <c r="BE2" s="72"/>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
         <v>18</v>
       </c>
@@ -16630,30 +16630,30 @@
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
       <c r="W3" s="37"/>
-      <c r="X3" s="44" t="s">
+      <c r="X3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
       <c r="AB3" s="2">
         <v>4.5999999999999996</v>
       </c>
@@ -16745,7 +16745,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A4" s="29">
         <v>0.5</v>
       </c>
@@ -16764,49 +16764,49 @@
       <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="55">
+      <c r="G4" s="45">
         <v>4176</v>
       </c>
-      <c r="H4" s="55">
+      <c r="H4" s="45">
         <v>4176</v>
       </c>
-      <c r="I4" s="55">
+      <c r="I4" s="45">
         <v>4176</v>
       </c>
-      <c r="J4" s="55">
+      <c r="J4" s="45">
         <v>6425</v>
       </c>
-      <c r="K4" s="55">
+      <c r="K4" s="45">
         <v>5925</v>
       </c>
-      <c r="L4" s="55">
+      <c r="L4" s="45">
         <v>4991</v>
       </c>
-      <c r="M4" s="55">
+      <c r="M4" s="45">
         <v>9421</v>
       </c>
-      <c r="N4" s="55">
+      <c r="N4" s="45">
         <v>8255</v>
       </c>
-      <c r="O4" s="55">
+      <c r="O4" s="45">
         <v>6075</v>
       </c>
-      <c r="P4" s="55">
+      <c r="P4" s="45">
         <v>12419</v>
       </c>
-      <c r="Q4" s="55">
+      <c r="Q4" s="45">
         <v>10587</v>
       </c>
-      <c r="R4" s="55">
+      <c r="R4" s="45">
         <v>7160</v>
       </c>
-      <c r="S4" s="55">
+      <c r="S4" s="45">
         <v>15416</v>
       </c>
-      <c r="T4" s="55">
+      <c r="T4" s="45">
         <v>12918</v>
       </c>
-      <c r="U4" s="56">
+      <c r="U4" s="46">
         <v>8246</v>
       </c>
       <c r="W4" s="2" t="s">
@@ -16855,7 +16855,7 @@
       <c r="BD4" s="13"/>
       <c r="BE4" s="13"/>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A5" s="29">
         <v>0.5</v>
       </c>
@@ -16874,49 +16874,49 @@
       <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="55">
+      <c r="G5" s="45">
         <v>4176</v>
       </c>
-      <c r="H5" s="55">
+      <c r="H5" s="45">
         <v>4176</v>
       </c>
-      <c r="I5" s="55">
+      <c r="I5" s="45">
         <v>4176</v>
       </c>
-      <c r="J5" s="55">
+      <c r="J5" s="45">
         <v>6619</v>
       </c>
-      <c r="K5" s="55">
+      <c r="K5" s="45">
         <v>6119</v>
       </c>
-      <c r="L5" s="55">
+      <c r="L5" s="45">
         <v>5185</v>
       </c>
-      <c r="M5" s="55">
+      <c r="M5" s="45">
         <v>9873</v>
       </c>
-      <c r="N5" s="55">
+      <c r="N5" s="45">
         <v>8708</v>
       </c>
-      <c r="O5" s="55">
+      <c r="O5" s="45">
         <v>6527</v>
       </c>
-      <c r="P5" s="55">
+      <c r="P5" s="45">
         <v>13130</v>
       </c>
-      <c r="Q5" s="55">
+      <c r="Q5" s="45">
         <v>11298</v>
       </c>
-      <c r="R5" s="55">
+      <c r="R5" s="45">
         <v>7871</v>
       </c>
-      <c r="S5" s="55">
+      <c r="S5" s="45">
         <v>16386</v>
       </c>
-      <c r="T5" s="55">
+      <c r="T5" s="45">
         <v>13887</v>
       </c>
-      <c r="U5" s="56">
+      <c r="U5" s="46">
         <v>9215</v>
       </c>
       <c r="W5" s="39" t="s">
@@ -17055,7 +17055,7 @@
         <v>-21825</v>
       </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A6" s="29">
         <v>0.5</v>
       </c>
@@ -17074,49 +17074,49 @@
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="45">
         <v>4176</v>
       </c>
-      <c r="H6" s="55">
+      <c r="H6" s="45">
         <v>4176</v>
       </c>
-      <c r="I6" s="55">
+      <c r="I6" s="45">
         <v>4176</v>
       </c>
-      <c r="J6" s="55">
+      <c r="J6" s="45">
         <v>6746</v>
       </c>
-      <c r="K6" s="55">
+      <c r="K6" s="45">
         <v>6246</v>
       </c>
-      <c r="L6" s="55">
+      <c r="L6" s="45">
         <v>5312</v>
       </c>
-      <c r="M6" s="55">
+      <c r="M6" s="45">
         <v>10169</v>
       </c>
-      <c r="N6" s="55">
+      <c r="N6" s="45">
         <v>9003</v>
       </c>
-      <c r="O6" s="55">
+      <c r="O6" s="45">
         <v>6823</v>
       </c>
-      <c r="P6" s="55">
+      <c r="P6" s="45">
         <v>13594</v>
       </c>
-      <c r="Q6" s="55">
+      <c r="Q6" s="45">
         <v>11762</v>
       </c>
-      <c r="R6" s="55">
+      <c r="R6" s="45">
         <v>8335</v>
       </c>
-      <c r="S6" s="55">
+      <c r="S6" s="45">
         <v>17018</v>
       </c>
-      <c r="T6" s="55">
+      <c r="T6" s="45">
         <v>14520</v>
       </c>
-      <c r="U6" s="56">
+      <c r="U6" s="46">
         <v>9848</v>
       </c>
       <c r="W6" s="39" t="s">
@@ -17255,7 +17255,7 @@
         <v>-21824</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A7" s="29">
         <v>0.5</v>
       </c>
@@ -17274,49 +17274,49 @@
       <c r="F7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="55">
+      <c r="G7" s="45">
         <v>4176</v>
       </c>
-      <c r="H7" s="55">
+      <c r="H7" s="45">
         <v>4176</v>
       </c>
-      <c r="I7" s="55">
+      <c r="I7" s="45">
         <v>4176</v>
       </c>
-      <c r="J7" s="55">
+      <c r="J7" s="45">
         <v>6792</v>
       </c>
-      <c r="K7" s="55">
+      <c r="K7" s="45">
         <v>6292</v>
       </c>
-      <c r="L7" s="55">
+      <c r="L7" s="45">
         <v>5357</v>
       </c>
-      <c r="M7" s="55">
+      <c r="M7" s="45">
         <v>10276</v>
       </c>
-      <c r="N7" s="55">
+      <c r="N7" s="45">
         <v>9110</v>
       </c>
-      <c r="O7" s="55">
+      <c r="O7" s="45">
         <v>6930</v>
       </c>
-      <c r="P7" s="55">
+      <c r="P7" s="45">
         <v>13762</v>
       </c>
-      <c r="Q7" s="55">
+      <c r="Q7" s="45">
         <v>11930</v>
       </c>
-      <c r="R7" s="55">
+      <c r="R7" s="45">
         <v>8504</v>
       </c>
-      <c r="S7" s="55">
+      <c r="S7" s="45">
         <v>17249</v>
       </c>
-      <c r="T7" s="55">
+      <c r="T7" s="45">
         <v>14750</v>
       </c>
-      <c r="U7" s="56">
+      <c r="U7" s="46">
         <v>10078</v>
       </c>
       <c r="W7" s="39" t="s">
@@ -17455,7 +17455,7 @@
         <v>-21825</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A8" s="29">
         <v>0.5</v>
       </c>
@@ -17474,49 +17474,49 @@
       <c r="F8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="55">
+      <c r="G8" s="45">
         <v>4176</v>
       </c>
-      <c r="H8" s="55">
+      <c r="H8" s="45">
         <v>4176</v>
       </c>
-      <c r="I8" s="55">
+      <c r="I8" s="45">
         <v>4176</v>
       </c>
-      <c r="J8" s="55">
+      <c r="J8" s="45">
         <v>6924</v>
       </c>
-      <c r="K8" s="55">
+      <c r="K8" s="45">
         <v>6558</v>
       </c>
-      <c r="L8" s="55">
+      <c r="L8" s="45">
         <v>6191</v>
       </c>
-      <c r="M8" s="55">
+      <c r="M8" s="45">
         <v>10588</v>
       </c>
-      <c r="N8" s="55">
+      <c r="N8" s="45">
         <v>9732</v>
       </c>
-      <c r="O8" s="55">
+      <c r="O8" s="45">
         <v>8877</v>
       </c>
-      <c r="P8" s="55">
+      <c r="P8" s="45">
         <v>14251</v>
       </c>
-      <c r="Q8" s="55">
+      <c r="Q8" s="45">
         <v>12907</v>
       </c>
-      <c r="R8" s="55">
+      <c r="R8" s="45">
         <v>11563</v>
       </c>
-      <c r="S8" s="55">
+      <c r="S8" s="45">
         <v>17915</v>
       </c>
-      <c r="T8" s="55">
+      <c r="T8" s="45">
         <v>16082</v>
       </c>
-      <c r="U8" s="56">
+      <c r="U8" s="46">
         <v>14249</v>
       </c>
       <c r="W8" s="39" t="s">
@@ -17655,7 +17655,7 @@
         <v>-21825</v>
       </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A9" s="29">
         <v>0.5</v>
       </c>
@@ -17674,53 +17674,53 @@
       <c r="F9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="55">
+      <c r="G9" s="45">
         <v>4176</v>
       </c>
-      <c r="H9" s="55">
+      <c r="H9" s="45">
         <v>4176</v>
       </c>
-      <c r="I9" s="55">
+      <c r="I9" s="45">
         <v>4176</v>
       </c>
-      <c r="J9" s="55">
+      <c r="J9" s="45">
         <v>7215</v>
       </c>
-      <c r="K9" s="55">
+      <c r="K9" s="45">
         <v>6848</v>
       </c>
-      <c r="L9" s="55">
+      <c r="L9" s="45">
         <v>6481</v>
       </c>
-      <c r="M9" s="55">
+      <c r="M9" s="45">
         <v>11265</v>
       </c>
-      <c r="N9" s="55">
+      <c r="N9" s="45">
         <v>10410</v>
       </c>
-      <c r="O9" s="55">
+      <c r="O9" s="45">
         <v>9554</v>
       </c>
-      <c r="P9" s="55">
+      <c r="P9" s="45">
         <v>15316</v>
       </c>
-      <c r="Q9" s="55">
+      <c r="Q9" s="45">
         <v>13972</v>
       </c>
-      <c r="R9" s="55">
+      <c r="R9" s="45">
         <v>12627</v>
       </c>
-      <c r="S9" s="55">
+      <c r="S9" s="45">
         <v>19367</v>
       </c>
-      <c r="T9" s="55">
+      <c r="T9" s="45">
         <v>17534</v>
       </c>
-      <c r="U9" s="56">
+      <c r="U9" s="46">
         <v>15700</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A10" s="29">
         <v>0.5</v>
       </c>
@@ -17739,53 +17739,53 @@
       <c r="F10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="55">
+      <c r="G10" s="45">
         <v>4176</v>
       </c>
-      <c r="H10" s="55">
+      <c r="H10" s="45">
         <v>4176</v>
       </c>
-      <c r="I10" s="55">
+      <c r="I10" s="45">
         <v>4176</v>
       </c>
-      <c r="J10" s="55">
+      <c r="J10" s="45">
         <v>7358</v>
       </c>
-      <c r="K10" s="55">
+      <c r="K10" s="45">
         <v>6991</v>
       </c>
-      <c r="L10" s="55">
+      <c r="L10" s="45">
         <v>6625</v>
       </c>
-      <c r="M10" s="55">
+      <c r="M10" s="45">
         <v>11599</v>
       </c>
-      <c r="N10" s="55">
+      <c r="N10" s="45">
         <v>10743</v>
       </c>
-      <c r="O10" s="55">
+      <c r="O10" s="45">
         <v>9888</v>
       </c>
-      <c r="P10" s="55">
+      <c r="P10" s="45">
         <v>15841</v>
       </c>
-      <c r="Q10" s="55">
+      <c r="Q10" s="45">
         <v>14496</v>
       </c>
-      <c r="R10" s="55">
+      <c r="R10" s="45">
         <v>13152</v>
       </c>
-      <c r="S10" s="55">
+      <c r="S10" s="45">
         <v>20082</v>
       </c>
-      <c r="T10" s="55">
+      <c r="T10" s="45">
         <v>18249</v>
       </c>
-      <c r="U10" s="56">
+      <c r="U10" s="46">
         <v>16416</v>
       </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A11" s="29">
         <v>0.5</v>
       </c>
@@ -17804,53 +17804,53 @@
       <c r="F11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="57">
+      <c r="G11" s="47">
         <v>4176</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="47">
         <v>4176</v>
       </c>
-      <c r="I11" s="57">
+      <c r="I11" s="47">
         <v>4176</v>
       </c>
-      <c r="J11" s="57">
+      <c r="J11" s="47">
         <v>7446</v>
       </c>
-      <c r="K11" s="57">
+      <c r="K11" s="47">
         <v>7080</v>
       </c>
-      <c r="L11" s="57">
+      <c r="L11" s="47">
         <v>6713</v>
       </c>
-      <c r="M11" s="57">
+      <c r="M11" s="47">
         <v>11805</v>
       </c>
-      <c r="N11" s="57">
+      <c r="N11" s="47">
         <v>10950</v>
       </c>
-      <c r="O11" s="57">
+      <c r="O11" s="47">
         <v>10094</v>
       </c>
-      <c r="P11" s="57">
+      <c r="P11" s="47">
         <v>16165</v>
       </c>
-      <c r="Q11" s="57">
+      <c r="Q11" s="47">
         <v>14820</v>
       </c>
-      <c r="R11" s="57">
+      <c r="R11" s="47">
         <v>13476</v>
       </c>
-      <c r="S11" s="57">
+      <c r="S11" s="47">
         <v>20524</v>
       </c>
-      <c r="T11" s="57">
+      <c r="T11" s="47">
         <v>18691</v>
       </c>
-      <c r="U11" s="58">
+      <c r="U11" s="48">
         <v>16858</v>
       </c>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A12" s="29">
         <v>0.25</v>
       </c>
@@ -17869,53 +17869,53 @@
       <c r="F12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="55">
+      <c r="G12" s="45">
         <v>4176</v>
       </c>
-      <c r="H12" s="55">
+      <c r="H12" s="45">
         <v>4176</v>
       </c>
-      <c r="I12" s="55">
+      <c r="I12" s="45">
         <v>4176</v>
       </c>
-      <c r="J12" s="55">
+      <c r="J12" s="45">
         <v>3129</v>
       </c>
-      <c r="K12" s="55">
+      <c r="K12" s="45">
         <v>2098</v>
       </c>
-      <c r="L12" s="55">
+      <c r="L12" s="45">
         <v>171</v>
       </c>
-      <c r="M12" s="55">
+      <c r="M12" s="45">
         <v>1730</v>
       </c>
-      <c r="N12" s="55">
+      <c r="N12" s="45">
         <v>-675</v>
       </c>
-      <c r="O12" s="55">
+      <c r="O12" s="45">
         <v>-5172</v>
       </c>
-      <c r="P12" s="55">
+      <c r="P12" s="45">
         <v>333</v>
       </c>
-      <c r="Q12" s="55">
+      <c r="Q12" s="45">
         <v>-3446</v>
       </c>
-      <c r="R12" s="55">
+      <c r="R12" s="45">
         <v>-10513</v>
       </c>
-      <c r="S12" s="55">
+      <c r="S12" s="45">
         <v>-1064</v>
       </c>
-      <c r="T12" s="55">
+      <c r="T12" s="45">
         <v>-6218</v>
       </c>
-      <c r="U12" s="56">
+      <c r="U12" s="46">
         <v>-15855</v>
       </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A13" s="29">
         <v>0.25</v>
       </c>
@@ -17934,53 +17934,53 @@
       <c r="F13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="55">
+      <c r="G13" s="45">
         <v>4176</v>
       </c>
-      <c r="H13" s="55">
+      <c r="H13" s="45">
         <v>4176</v>
       </c>
-      <c r="I13" s="55">
+      <c r="I13" s="45">
         <v>4176</v>
       </c>
-      <c r="J13" s="55">
+      <c r="J13" s="45">
         <v>3323</v>
       </c>
-      <c r="K13" s="55">
+      <c r="K13" s="45">
         <v>2292</v>
       </c>
-      <c r="L13" s="55">
+      <c r="L13" s="45">
         <v>365</v>
       </c>
-      <c r="M13" s="55">
+      <c r="M13" s="45">
         <v>2183</v>
       </c>
-      <c r="N13" s="55">
+      <c r="N13" s="45">
         <v>-222</v>
       </c>
-      <c r="O13" s="55">
+      <c r="O13" s="45">
         <v>-4720</v>
       </c>
-      <c r="P13" s="55">
+      <c r="P13" s="45">
         <v>1044</v>
       </c>
-      <c r="Q13" s="55">
+      <c r="Q13" s="45">
         <v>-2735</v>
       </c>
-      <c r="R13" s="55">
+      <c r="R13" s="45">
         <v>-9802</v>
       </c>
-      <c r="S13" s="55">
+      <c r="S13" s="45">
         <v>-95</v>
       </c>
-      <c r="T13" s="55">
+      <c r="T13" s="45">
         <v>-5248</v>
       </c>
-      <c r="U13" s="56">
+      <c r="U13" s="46">
         <v>-14885</v>
       </c>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A14" s="29">
         <v>0.25</v>
       </c>
@@ -17999,53 +17999,53 @@
       <c r="F14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="55">
+      <c r="G14" s="45">
         <v>4176</v>
       </c>
-      <c r="H14" s="55">
+      <c r="H14" s="45">
         <v>4176</v>
       </c>
-      <c r="I14" s="55">
+      <c r="I14" s="45">
         <v>4176</v>
       </c>
-      <c r="J14" s="55">
+      <c r="J14" s="45">
         <v>3450</v>
       </c>
-      <c r="K14" s="55">
+      <c r="K14" s="45">
         <v>2419</v>
       </c>
-      <c r="L14" s="55">
+      <c r="L14" s="45">
         <v>492</v>
       </c>
-      <c r="M14" s="55">
+      <c r="M14" s="45">
         <v>2478</v>
       </c>
-      <c r="N14" s="55">
+      <c r="N14" s="45">
         <v>73</v>
       </c>
-      <c r="O14" s="55">
+      <c r="O14" s="45">
         <v>-4424</v>
       </c>
-      <c r="P14" s="55">
+      <c r="P14" s="45">
         <v>1508</v>
       </c>
-      <c r="Q14" s="55">
+      <c r="Q14" s="45">
         <v>-2271</v>
       </c>
-      <c r="R14" s="55">
+      <c r="R14" s="45">
         <v>-9338</v>
       </c>
-      <c r="S14" s="55">
+      <c r="S14" s="45">
         <v>538</v>
       </c>
-      <c r="T14" s="55">
+      <c r="T14" s="45">
         <v>-4615</v>
       </c>
-      <c r="U14" s="56">
+      <c r="U14" s="46">
         <v>-14252</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A15" s="29">
         <v>0.25</v>
       </c>
@@ -18064,53 +18064,53 @@
       <c r="F15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="55">
+      <c r="G15" s="45">
         <v>4176</v>
       </c>
-      <c r="H15" s="55">
+      <c r="H15" s="45">
         <v>4176</v>
       </c>
-      <c r="I15" s="55">
+      <c r="I15" s="45">
         <v>4176</v>
       </c>
-      <c r="J15" s="55">
+      <c r="J15" s="45">
         <v>3495</v>
       </c>
-      <c r="K15" s="55">
+      <c r="K15" s="45">
         <v>2465</v>
       </c>
-      <c r="L15" s="55">
+      <c r="L15" s="45">
         <v>537</v>
       </c>
-      <c r="M15" s="55">
+      <c r="M15" s="45">
         <v>2585</v>
       </c>
-      <c r="N15" s="55">
+      <c r="N15" s="45">
         <v>180</v>
       </c>
-      <c r="O15" s="55">
+      <c r="O15" s="45">
         <v>-4317</v>
       </c>
-      <c r="P15" s="55">
+      <c r="P15" s="45">
         <v>1677</v>
       </c>
-      <c r="Q15" s="55">
+      <c r="Q15" s="45">
         <v>-2102</v>
       </c>
-      <c r="R15" s="55">
+      <c r="R15" s="45">
         <v>-9169</v>
       </c>
-      <c r="S15" s="55">
+      <c r="S15" s="45">
         <v>768</v>
       </c>
-      <c r="T15" s="55">
+      <c r="T15" s="45">
         <v>-4385</v>
       </c>
-      <c r="U15" s="56">
+      <c r="U15" s="46">
         <v>-14022</v>
       </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A16" s="29">
         <v>0.25</v>
       </c>
@@ -18129,53 +18129,53 @@
       <c r="F16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="55">
+      <c r="G16" s="45">
         <v>4176</v>
       </c>
-      <c r="H16" s="55">
+      <c r="H16" s="45">
         <v>4176</v>
       </c>
-      <c r="I16" s="55">
+      <c r="I16" s="45">
         <v>4176</v>
       </c>
-      <c r="J16" s="55">
+      <c r="J16" s="45">
         <v>3339</v>
       </c>
-      <c r="K16" s="55">
+      <c r="K16" s="45">
         <v>2582</v>
       </c>
-      <c r="L16" s="55">
+      <c r="L16" s="45">
         <v>1826</v>
       </c>
-      <c r="M16" s="55">
+      <c r="M16" s="45">
         <v>2221</v>
       </c>
-      <c r="N16" s="55">
+      <c r="N16" s="45">
         <v>456</v>
       </c>
-      <c r="O16" s="55">
+      <c r="O16" s="45">
         <v>-1308</v>
       </c>
-      <c r="P16" s="55">
+      <c r="P16" s="45">
         <v>1104</v>
       </c>
-      <c r="Q16" s="55">
+      <c r="Q16" s="45">
         <v>-1669</v>
       </c>
-      <c r="R16" s="55">
+      <c r="R16" s="45">
         <v>-4442</v>
       </c>
-      <c r="S16" s="55">
+      <c r="S16" s="45">
         <v>-14</v>
       </c>
-      <c r="T16" s="55">
+      <c r="T16" s="45">
         <v>-3795</v>
       </c>
-      <c r="U16" s="56">
+      <c r="U16" s="46">
         <v>-7576</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="29">
         <v>0.25</v>
       </c>
@@ -18194,53 +18194,53 @@
       <c r="F17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="55">
+      <c r="G17" s="45">
         <v>4176</v>
       </c>
-      <c r="H17" s="55">
+      <c r="H17" s="45">
         <v>4176</v>
       </c>
-      <c r="I17" s="55">
+      <c r="I17" s="45">
         <v>4176</v>
       </c>
-      <c r="J17" s="55">
+      <c r="J17" s="45">
         <v>3629</v>
       </c>
-      <c r="K17" s="55">
+      <c r="K17" s="45">
         <v>2873</v>
       </c>
-      <c r="L17" s="55">
+      <c r="L17" s="45">
         <v>2116</v>
       </c>
-      <c r="M17" s="55">
+      <c r="M17" s="45">
         <v>2898</v>
       </c>
-      <c r="N17" s="55">
+      <c r="N17" s="45">
         <v>1134</v>
       </c>
-      <c r="O17" s="55">
+      <c r="O17" s="45">
         <v>-631</v>
       </c>
-      <c r="P17" s="55">
+      <c r="P17" s="45">
         <v>2168</v>
       </c>
-      <c r="Q17" s="55">
+      <c r="Q17" s="45">
         <v>-605</v>
       </c>
-      <c r="R17" s="55">
+      <c r="R17" s="45">
         <v>-3378</v>
       </c>
-      <c r="S17" s="55">
+      <c r="S17" s="45">
         <v>1438</v>
       </c>
-      <c r="T17" s="55">
+      <c r="T17" s="45">
         <v>-2343</v>
       </c>
-      <c r="U17" s="56">
+      <c r="U17" s="46">
         <v>-6124</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="29">
         <v>0.25</v>
       </c>
@@ -18259,53 +18259,53 @@
       <c r="F18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="55">
+      <c r="G18" s="45">
         <v>4176</v>
       </c>
-      <c r="H18" s="55">
+      <c r="H18" s="45">
         <v>4176</v>
       </c>
-      <c r="I18" s="55">
+      <c r="I18" s="45">
         <v>4176</v>
       </c>
-      <c r="J18" s="55">
+      <c r="J18" s="45">
         <v>3772</v>
       </c>
-      <c r="K18" s="55">
+      <c r="K18" s="45">
         <v>3016</v>
       </c>
-      <c r="L18" s="55">
+      <c r="L18" s="45">
         <v>2260</v>
       </c>
-      <c r="M18" s="55">
+      <c r="M18" s="45">
         <v>3232</v>
       </c>
-      <c r="N18" s="55">
+      <c r="N18" s="45">
         <v>1468</v>
       </c>
-      <c r="O18" s="55">
+      <c r="O18" s="45">
         <v>-297</v>
       </c>
-      <c r="P18" s="55">
+      <c r="P18" s="45">
         <v>2693</v>
       </c>
-      <c r="Q18" s="55">
+      <c r="Q18" s="45">
         <v>-80</v>
       </c>
-      <c r="R18" s="55">
+      <c r="R18" s="45">
         <v>-2853</v>
       </c>
-      <c r="S18" s="55">
+      <c r="S18" s="45">
         <v>2154</v>
       </c>
-      <c r="T18" s="55">
+      <c r="T18" s="45">
         <v>-1628</v>
       </c>
-      <c r="U18" s="56">
+      <c r="U18" s="46">
         <v>-5409</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="29">
         <v>0.25</v>
       </c>
@@ -18324,53 +18324,53 @@
       <c r="F19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="57">
+      <c r="G19" s="47">
         <v>4176</v>
       </c>
-      <c r="H19" s="57">
+      <c r="H19" s="47">
         <v>4176</v>
       </c>
-      <c r="I19" s="57">
+      <c r="I19" s="47">
         <v>4176</v>
       </c>
-      <c r="J19" s="57">
+      <c r="J19" s="47">
         <v>3860</v>
       </c>
-      <c r="K19" s="57">
+      <c r="K19" s="47">
         <v>3104</v>
       </c>
-      <c r="L19" s="57">
+      <c r="L19" s="47">
         <v>2348</v>
       </c>
-      <c r="M19" s="57">
+      <c r="M19" s="47">
         <v>3438</v>
       </c>
-      <c r="N19" s="57">
+      <c r="N19" s="47">
         <v>1674</v>
       </c>
-      <c r="O19" s="57">
+      <c r="O19" s="47">
         <v>-91</v>
       </c>
-      <c r="P19" s="57">
+      <c r="P19" s="47">
         <v>3017</v>
       </c>
-      <c r="Q19" s="57">
+      <c r="Q19" s="47">
         <v>244</v>
       </c>
-      <c r="R19" s="57">
+      <c r="R19" s="47">
         <v>-2529</v>
       </c>
-      <c r="S19" s="57">
+      <c r="S19" s="47">
         <v>2595</v>
       </c>
-      <c r="T19" s="57">
+      <c r="T19" s="47">
         <v>-1186</v>
       </c>
-      <c r="U19" s="58">
+      <c r="U19" s="48">
         <v>-4967</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
@@ -18389,68 +18389,68 @@
       <c r="F20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="54">
+      <c r="G20" s="44">
         <f t="shared" ref="G20:U20" si="10">G12-G4</f>
         <v>0</v>
       </c>
-      <c r="H20" s="54">
+      <c r="H20" s="44">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I20" s="54">
+      <c r="I20" s="44">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J20" s="54">
+      <c r="J20" s="44">
         <f t="shared" si="10"/>
         <v>-3296</v>
       </c>
-      <c r="K20" s="54">
+      <c r="K20" s="44">
         <f t="shared" si="10"/>
         <v>-3827</v>
       </c>
-      <c r="L20" s="54">
+      <c r="L20" s="44">
         <f t="shared" si="10"/>
         <v>-4820</v>
       </c>
-      <c r="M20" s="54">
+      <c r="M20" s="44">
         <f t="shared" si="10"/>
         <v>-7691</v>
       </c>
-      <c r="N20" s="54">
+      <c r="N20" s="44">
         <f t="shared" si="10"/>
         <v>-8930</v>
       </c>
-      <c r="O20" s="54">
+      <c r="O20" s="44">
         <f t="shared" si="10"/>
         <v>-11247</v>
       </c>
-      <c r="P20" s="54">
+      <c r="P20" s="44">
         <f t="shared" si="10"/>
         <v>-12086</v>
       </c>
-      <c r="Q20" s="54">
+      <c r="Q20" s="44">
         <f t="shared" si="10"/>
         <v>-14033</v>
       </c>
-      <c r="R20" s="54">
+      <c r="R20" s="44">
         <f t="shared" si="10"/>
         <v>-17673</v>
       </c>
-      <c r="S20" s="54">
+      <c r="S20" s="44">
         <f t="shared" si="10"/>
         <v>-16480</v>
       </c>
-      <c r="T20" s="54">
+      <c r="T20" s="44">
         <f t="shared" si="10"/>
         <v>-19136</v>
       </c>
-      <c r="U20" s="54">
+      <c r="U20" s="44">
         <f t="shared" si="10"/>
         <v>-24101</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -18469,68 +18469,68 @@
       <c r="F21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="54">
+      <c r="G21" s="44">
         <f t="shared" ref="G21:U21" si="11">G13-G5</f>
         <v>0</v>
       </c>
-      <c r="H21" s="54">
+      <c r="H21" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I21" s="54">
+      <c r="I21" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J21" s="54">
+      <c r="J21" s="44">
         <f t="shared" si="11"/>
         <v>-3296</v>
       </c>
-      <c r="K21" s="54">
+      <c r="K21" s="44">
         <f t="shared" si="11"/>
         <v>-3827</v>
       </c>
-      <c r="L21" s="54">
+      <c r="L21" s="44">
         <f t="shared" si="11"/>
         <v>-4820</v>
       </c>
-      <c r="M21" s="54">
+      <c r="M21" s="44">
         <f t="shared" si="11"/>
         <v>-7690</v>
       </c>
-      <c r="N21" s="54">
+      <c r="N21" s="44">
         <f t="shared" si="11"/>
         <v>-8930</v>
       </c>
-      <c r="O21" s="54">
+      <c r="O21" s="44">
         <f t="shared" si="11"/>
         <v>-11247</v>
       </c>
-      <c r="P21" s="54">
+      <c r="P21" s="44">
         <f t="shared" si="11"/>
         <v>-12086</v>
       </c>
-      <c r="Q21" s="54">
+      <c r="Q21" s="44">
         <f t="shared" si="11"/>
         <v>-14033</v>
       </c>
-      <c r="R21" s="54">
+      <c r="R21" s="44">
         <f t="shared" si="11"/>
         <v>-17673</v>
       </c>
-      <c r="S21" s="54">
+      <c r="S21" s="44">
         <f t="shared" si="11"/>
         <v>-16481</v>
       </c>
-      <c r="T21" s="54">
+      <c r="T21" s="44">
         <f t="shared" si="11"/>
         <v>-19135</v>
       </c>
-      <c r="U21" s="54">
+      <c r="U21" s="44">
         <f t="shared" si="11"/>
         <v>-24100</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -18549,68 +18549,68 @@
       <c r="F22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="54">
+      <c r="G22" s="44">
         <f t="shared" ref="G22:U22" si="12">G14-G6</f>
         <v>0</v>
       </c>
-      <c r="H22" s="54">
+      <c r="H22" s="44">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I22" s="54">
+      <c r="I22" s="44">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J22" s="54">
+      <c r="J22" s="44">
         <f t="shared" si="12"/>
         <v>-3296</v>
       </c>
-      <c r="K22" s="54">
+      <c r="K22" s="44">
         <f t="shared" si="12"/>
         <v>-3827</v>
       </c>
-      <c r="L22" s="54">
+      <c r="L22" s="44">
         <f t="shared" si="12"/>
         <v>-4820</v>
       </c>
-      <c r="M22" s="54">
+      <c r="M22" s="44">
         <f t="shared" si="12"/>
         <v>-7691</v>
       </c>
-      <c r="N22" s="54">
+      <c r="N22" s="44">
         <f t="shared" si="12"/>
         <v>-8930</v>
       </c>
-      <c r="O22" s="54">
+      <c r="O22" s="44">
         <f t="shared" si="12"/>
         <v>-11247</v>
       </c>
-      <c r="P22" s="54">
+      <c r="P22" s="44">
         <f t="shared" si="12"/>
         <v>-12086</v>
       </c>
-      <c r="Q22" s="54">
+      <c r="Q22" s="44">
         <f t="shared" si="12"/>
         <v>-14033</v>
       </c>
-      <c r="R22" s="54">
+      <c r="R22" s="44">
         <f t="shared" si="12"/>
         <v>-17673</v>
       </c>
-      <c r="S22" s="54">
+      <c r="S22" s="44">
         <f t="shared" si="12"/>
         <v>-16480</v>
       </c>
-      <c r="T22" s="54">
+      <c r="T22" s="44">
         <f t="shared" si="12"/>
         <v>-19135</v>
       </c>
-      <c r="U22" s="54">
+      <c r="U22" s="44">
         <f t="shared" si="12"/>
         <v>-24100</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
@@ -18629,68 +18629,68 @@
       <c r="F23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="54">
+      <c r="G23" s="44">
         <f t="shared" ref="G23:U23" si="13">G15-G7</f>
         <v>0</v>
       </c>
-      <c r="H23" s="54">
+      <c r="H23" s="44">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I23" s="54">
+      <c r="I23" s="44">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J23" s="54">
+      <c r="J23" s="44">
         <f t="shared" si="13"/>
         <v>-3297</v>
       </c>
-      <c r="K23" s="54">
+      <c r="K23" s="44">
         <f t="shared" si="13"/>
         <v>-3827</v>
       </c>
-      <c r="L23" s="54">
+      <c r="L23" s="44">
         <f t="shared" si="13"/>
         <v>-4820</v>
       </c>
-      <c r="M23" s="54">
+      <c r="M23" s="44">
         <f t="shared" si="13"/>
         <v>-7691</v>
       </c>
-      <c r="N23" s="54">
+      <c r="N23" s="44">
         <f t="shared" si="13"/>
         <v>-8930</v>
       </c>
-      <c r="O23" s="54">
+      <c r="O23" s="44">
         <f t="shared" si="13"/>
         <v>-11247</v>
       </c>
-      <c r="P23" s="54">
+      <c r="P23" s="44">
         <f t="shared" si="13"/>
         <v>-12085</v>
       </c>
-      <c r="Q23" s="54">
+      <c r="Q23" s="44">
         <f t="shared" si="13"/>
         <v>-14032</v>
       </c>
-      <c r="R23" s="54">
+      <c r="R23" s="44">
         <f t="shared" si="13"/>
         <v>-17673</v>
       </c>
-      <c r="S23" s="54">
+      <c r="S23" s="44">
         <f t="shared" si="13"/>
         <v>-16481</v>
       </c>
-      <c r="T23" s="54">
+      <c r="T23" s="44">
         <f t="shared" si="13"/>
         <v>-19135</v>
       </c>
-      <c r="U23" s="54">
+      <c r="U23" s="44">
         <f t="shared" si="13"/>
         <v>-24100</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
@@ -18709,68 +18709,68 @@
       <c r="F24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="54">
+      <c r="G24" s="44">
         <f t="shared" ref="G24:U24" si="14">G16-G8</f>
         <v>0</v>
       </c>
-      <c r="H24" s="54">
+      <c r="H24" s="44">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I24" s="54">
+      <c r="I24" s="44">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J24" s="54">
+      <c r="J24" s="44">
         <f t="shared" si="14"/>
         <v>-3585</v>
       </c>
-      <c r="K24" s="54">
+      <c r="K24" s="44">
         <f t="shared" si="14"/>
         <v>-3976</v>
       </c>
-      <c r="L24" s="54">
+      <c r="L24" s="44">
         <f t="shared" si="14"/>
         <v>-4365</v>
       </c>
-      <c r="M24" s="54">
+      <c r="M24" s="44">
         <f t="shared" si="14"/>
         <v>-8367</v>
       </c>
-      <c r="N24" s="54">
+      <c r="N24" s="44">
         <f t="shared" si="14"/>
         <v>-9276</v>
       </c>
-      <c r="O24" s="54">
+      <c r="O24" s="44">
         <f t="shared" si="14"/>
         <v>-10185</v>
       </c>
-      <c r="P24" s="54">
+      <c r="P24" s="44">
         <f t="shared" si="14"/>
         <v>-13147</v>
       </c>
-      <c r="Q24" s="54">
+      <c r="Q24" s="44">
         <f t="shared" si="14"/>
         <v>-14576</v>
       </c>
-      <c r="R24" s="54">
+      <c r="R24" s="44">
         <f t="shared" si="14"/>
         <v>-16005</v>
       </c>
-      <c r="S24" s="54">
+      <c r="S24" s="44">
         <f t="shared" si="14"/>
         <v>-17929</v>
       </c>
-      <c r="T24" s="54">
+      <c r="T24" s="44">
         <f t="shared" si="14"/>
         <v>-19877</v>
       </c>
-      <c r="U24" s="54">
+      <c r="U24" s="44">
         <f t="shared" si="14"/>
         <v>-21825</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
@@ -18789,68 +18789,68 @@
       <c r="F25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="54">
+      <c r="G25" s="44">
         <f t="shared" ref="G25:U25" si="15">G17-G9</f>
         <v>0</v>
       </c>
-      <c r="H25" s="54">
+      <c r="H25" s="44">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I25" s="54">
+      <c r="I25" s="44">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J25" s="54">
+      <c r="J25" s="44">
         <f t="shared" si="15"/>
         <v>-3586</v>
       </c>
-      <c r="K25" s="54">
+      <c r="K25" s="44">
         <f t="shared" si="15"/>
         <v>-3975</v>
       </c>
-      <c r="L25" s="54">
+      <c r="L25" s="44">
         <f t="shared" si="15"/>
         <v>-4365</v>
       </c>
-      <c r="M25" s="54">
+      <c r="M25" s="44">
         <f t="shared" si="15"/>
         <v>-8367</v>
       </c>
-      <c r="N25" s="54">
+      <c r="N25" s="44">
         <f t="shared" si="15"/>
         <v>-9276</v>
       </c>
-      <c r="O25" s="54">
+      <c r="O25" s="44">
         <f t="shared" si="15"/>
         <v>-10185</v>
       </c>
-      <c r="P25" s="54">
+      <c r="P25" s="44">
         <f t="shared" si="15"/>
         <v>-13148</v>
       </c>
-      <c r="Q25" s="54">
+      <c r="Q25" s="44">
         <f t="shared" si="15"/>
         <v>-14577</v>
       </c>
-      <c r="R25" s="54">
+      <c r="R25" s="44">
         <f t="shared" si="15"/>
         <v>-16005</v>
       </c>
-      <c r="S25" s="54">
+      <c r="S25" s="44">
         <f t="shared" si="15"/>
         <v>-17929</v>
       </c>
-      <c r="T25" s="54">
+      <c r="T25" s="44">
         <f t="shared" si="15"/>
         <v>-19877</v>
       </c>
-      <c r="U25" s="54">
+      <c r="U25" s="44">
         <f t="shared" si="15"/>
         <v>-21824</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
@@ -18869,68 +18869,68 @@
       <c r="F26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="54">
+      <c r="G26" s="44">
         <f t="shared" ref="G26:U26" si="16">G18-G10</f>
         <v>0</v>
       </c>
-      <c r="H26" s="54">
+      <c r="H26" s="44">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="I26" s="54">
+      <c r="I26" s="44">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J26" s="54">
+      <c r="J26" s="44">
         <f t="shared" si="16"/>
         <v>-3586</v>
       </c>
-      <c r="K26" s="54">
+      <c r="K26" s="44">
         <f t="shared" si="16"/>
         <v>-3975</v>
       </c>
-      <c r="L26" s="54">
+      <c r="L26" s="44">
         <f t="shared" si="16"/>
         <v>-4365</v>
       </c>
-      <c r="M26" s="54">
+      <c r="M26" s="44">
         <f t="shared" si="16"/>
         <v>-8367</v>
       </c>
-      <c r="N26" s="54">
+      <c r="N26" s="44">
         <f t="shared" si="16"/>
         <v>-9275</v>
       </c>
-      <c r="O26" s="54">
+      <c r="O26" s="44">
         <f t="shared" si="16"/>
         <v>-10185</v>
       </c>
-      <c r="P26" s="54">
+      <c r="P26" s="44">
         <f t="shared" si="16"/>
         <v>-13148</v>
       </c>
-      <c r="Q26" s="54">
+      <c r="Q26" s="44">
         <f t="shared" si="16"/>
         <v>-14576</v>
       </c>
-      <c r="R26" s="54">
+      <c r="R26" s="44">
         <f t="shared" si="16"/>
         <v>-16005</v>
       </c>
-      <c r="S26" s="54">
+      <c r="S26" s="44">
         <f t="shared" si="16"/>
         <v>-17928</v>
       </c>
-      <c r="T26" s="54">
+      <c r="T26" s="44">
         <f t="shared" si="16"/>
         <v>-19877</v>
       </c>
-      <c r="U26" s="54">
+      <c r="U26" s="44">
         <f t="shared" si="16"/>
         <v>-21825</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
@@ -18949,82 +18949,72 @@
       <c r="F27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="54">
+      <c r="G27" s="44">
         <f t="shared" ref="G27:U27" si="17">G19-G11</f>
         <v>0</v>
       </c>
-      <c r="H27" s="54">
+      <c r="H27" s="44">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I27" s="54">
+      <c r="I27" s="44">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J27" s="54">
+      <c r="J27" s="44">
         <f t="shared" si="17"/>
         <v>-3586</v>
       </c>
-      <c r="K27" s="54">
+      <c r="K27" s="44">
         <f t="shared" si="17"/>
         <v>-3976</v>
       </c>
-      <c r="L27" s="54">
+      <c r="L27" s="44">
         <f t="shared" si="17"/>
         <v>-4365</v>
       </c>
-      <c r="M27" s="54">
+      <c r="M27" s="44">
         <f t="shared" si="17"/>
         <v>-8367</v>
       </c>
-      <c r="N27" s="54">
+      <c r="N27" s="44">
         <f t="shared" si="17"/>
         <v>-9276</v>
       </c>
-      <c r="O27" s="54">
+      <c r="O27" s="44">
         <f t="shared" si="17"/>
         <v>-10185</v>
       </c>
-      <c r="P27" s="54">
+      <c r="P27" s="44">
         <f t="shared" si="17"/>
         <v>-13148</v>
       </c>
-      <c r="Q27" s="54">
+      <c r="Q27" s="44">
         <f t="shared" si="17"/>
         <v>-14576</v>
       </c>
-      <c r="R27" s="54">
+      <c r="R27" s="44">
         <f t="shared" si="17"/>
         <v>-16005</v>
       </c>
-      <c r="S27" s="54">
+      <c r="S27" s="44">
         <f t="shared" si="17"/>
         <v>-17929</v>
       </c>
-      <c r="T27" s="54">
+      <c r="T27" s="44">
         <f t="shared" si="17"/>
         <v>-19877</v>
       </c>
-      <c r="U27" s="54">
+      <c r="U27" s="44">
         <f t="shared" si="17"/>
         <v>-21825</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="G28" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AT1:AY1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G3:U3"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="X3:AA3"/>
     <mergeCell ref="AZ1:BE1"/>
     <mergeCell ref="X2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
@@ -19041,6 +19031,16 @@
     <mergeCell ref="AB1:AG1"/>
     <mergeCell ref="AH1:AM1"/>
     <mergeCell ref="AN1:AS1"/>
+    <mergeCell ref="AT1:AY1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G3:U3"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="X3:AA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19059,156 +19059,156 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="6.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="7.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="15" max="21" width="8.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="8.85546875" style="28"/>
-    <col min="24" max="24" width="24.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="25" max="32" width="7.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="34" max="37" width="7.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="8.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="7.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="8.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.85546875" style="28"/>
-    <col min="44" max="44" width="1.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="45" max="47" width="8.85546875" style="28"/>
+    <col min="4" max="4" width="14.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="6.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="7.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="21" width="8.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="8.83203125" style="28"/>
+    <col min="24" max="24" width="24.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="25" max="32" width="7.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="34" max="37" width="7.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="8.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="7.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.83203125" style="28"/>
+    <col min="44" max="44" width="1.83203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="45" max="47" width="8.83203125" style="28"/>
     <col min="48" max="48" width="26" style="28" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="6.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="7.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="53" max="54" width="6.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="7.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="6.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="7.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="59" max="60" width="6.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="7.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="6.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="7.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="65" max="66" width="6.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="7.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="68" max="69" width="6.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="7.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="71" max="78" width="6.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="79" max="16384" width="8.85546875" style="28"/>
+    <col min="49" max="49" width="7.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="6.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="7.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="6.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="7.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="6.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="7.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="59" max="60" width="6.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="7.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="6.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="7.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="65" max="66" width="6.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="7.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="68" max="69" width="6.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="7.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="71" max="78" width="6.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="79" max="16384" width="8.83203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="B1" s="44" t="s">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="B1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="45" t="s">
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44" t="s">
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44" t="s">
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44" t="s">
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44" t="s">
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
       <c r="X1" s="2"/>
-      <c r="Y1" s="44" t="s">
+      <c r="Y1" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44" t="s">
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="46" t="s">
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="46"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72"/>
+      <c r="AP1" s="72"/>
       <c r="AV1" s="2"/>
-      <c r="AW1" s="44" t="s">
+      <c r="AW1" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="44"/>
-      <c r="BA1" s="44"/>
-      <c r="BB1" s="44"/>
-      <c r="BC1" s="44" t="s">
+      <c r="AX1" s="73"/>
+      <c r="AY1" s="73"/>
+      <c r="AZ1" s="73"/>
+      <c r="BA1" s="73"/>
+      <c r="BB1" s="73"/>
+      <c r="BC1" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="BD1" s="44"/>
-      <c r="BE1" s="44"/>
-      <c r="BF1" s="44"/>
-      <c r="BG1" s="44"/>
-      <c r="BH1" s="44"/>
-      <c r="BI1" s="44" t="s">
+      <c r="BD1" s="73"/>
+      <c r="BE1" s="73"/>
+      <c r="BF1" s="73"/>
+      <c r="BG1" s="73"/>
+      <c r="BH1" s="73"/>
+      <c r="BI1" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="BJ1" s="44"/>
-      <c r="BK1" s="44"/>
-      <c r="BL1" s="44"/>
-      <c r="BM1" s="44"/>
-      <c r="BN1" s="44"/>
-      <c r="BO1" s="44" t="s">
+      <c r="BJ1" s="73"/>
+      <c r="BK1" s="73"/>
+      <c r="BL1" s="73"/>
+      <c r="BM1" s="73"/>
+      <c r="BN1" s="73"/>
+      <c r="BO1" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="BP1" s="44"/>
-      <c r="BQ1" s="44"/>
-      <c r="BR1" s="44"/>
-      <c r="BS1" s="44"/>
-      <c r="BT1" s="44"/>
-      <c r="BU1" s="44" t="s">
+      <c r="BP1" s="73"/>
+      <c r="BQ1" s="73"/>
+      <c r="BR1" s="73"/>
+      <c r="BS1" s="73"/>
+      <c r="BT1" s="73"/>
+      <c r="BU1" s="73" t="s">
         <v>118</v>
       </c>
-      <c r="BV1" s="44"/>
-      <c r="BW1" s="44"/>
-      <c r="BX1" s="44"/>
-      <c r="BY1" s="44"/>
-      <c r="BZ1" s="44"/>
+      <c r="BV1" s="73"/>
+      <c r="BW1" s="73"/>
+      <c r="BX1" s="73"/>
+      <c r="BY1" s="73"/>
+      <c r="BZ1" s="73"/>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="B2" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -19255,89 +19255,89 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="X2" s="2"/>
-      <c r="Y2" s="46" t="s">
+      <c r="Y2" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46" t="s">
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46" t="s">
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46" t="s">
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46" t="s">
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="46"/>
-      <c r="AN2" s="46" t="s">
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="46"/>
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="72"/>
       <c r="AV2" s="26"/>
-      <c r="AW2" s="46" t="s">
+      <c r="AW2" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="AX2" s="46"/>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="46" t="s">
+      <c r="AX2" s="72"/>
+      <c r="AY2" s="72"/>
+      <c r="AZ2" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="BA2" s="46"/>
-      <c r="BB2" s="46"/>
-      <c r="BC2" s="46" t="s">
+      <c r="BA2" s="72"/>
+      <c r="BB2" s="72"/>
+      <c r="BC2" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="BD2" s="46"/>
-      <c r="BE2" s="46"/>
-      <c r="BF2" s="46" t="s">
+      <c r="BD2" s="72"/>
+      <c r="BE2" s="72"/>
+      <c r="BF2" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="BG2" s="46"/>
-      <c r="BH2" s="46"/>
-      <c r="BI2" s="46" t="s">
+      <c r="BG2" s="72"/>
+      <c r="BH2" s="72"/>
+      <c r="BI2" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="BJ2" s="46"/>
-      <c r="BK2" s="46"/>
-      <c r="BL2" s="46" t="s">
+      <c r="BJ2" s="72"/>
+      <c r="BK2" s="72"/>
+      <c r="BL2" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="BM2" s="46"/>
-      <c r="BN2" s="46"/>
-      <c r="BO2" s="46" t="s">
+      <c r="BM2" s="72"/>
+      <c r="BN2" s="72"/>
+      <c r="BO2" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="BP2" s="46"/>
-      <c r="BQ2" s="46"/>
-      <c r="BR2" s="46" t="s">
+      <c r="BP2" s="72"/>
+      <c r="BQ2" s="72"/>
+      <c r="BR2" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="BS2" s="46"/>
-      <c r="BT2" s="46"/>
-      <c r="BU2" s="46" t="s">
+      <c r="BS2" s="72"/>
+      <c r="BT2" s="72"/>
+      <c r="BU2" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="BV2" s="46"/>
-      <c r="BW2" s="46"/>
-      <c r="BX2" s="46" t="s">
+      <c r="BV2" s="72"/>
+      <c r="BW2" s="72"/>
+      <c r="BX2" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="BY2" s="46"/>
-      <c r="BZ2" s="46"/>
+      <c r="BY2" s="72"/>
+      <c r="BZ2" s="72"/>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
         <v>18</v>
       </c>
@@ -19356,23 +19356,23 @@
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2" t="s">
         <v>111</v>
@@ -19520,7 +19520,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A4" s="29">
         <v>0.5</v>
       </c>
@@ -19747,7 +19747,7 @@
         <v>9619</v>
       </c>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A5" s="29">
         <v>0.5</v>
       </c>
@@ -19938,7 +19938,7 @@
       <c r="BY5" s="38"/>
       <c r="BZ5" s="38"/>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A6" s="29">
         <v>0.5</v>
       </c>
@@ -20105,7 +20105,7 @@
       <c r="BY6" s="38"/>
       <c r="BZ6" s="38"/>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A7" s="29">
         <v>0.5</v>
       </c>
@@ -20272,7 +20272,7 @@
       <c r="BY7" s="38"/>
       <c r="BZ7" s="38"/>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A8" s="29">
         <v>0.5</v>
       </c>
@@ -20451,7 +20451,7 @@
       <c r="BY8" s="38"/>
       <c r="BZ8" s="38"/>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A9" s="29">
         <v>0.5</v>
       </c>
@@ -20568,7 +20568,7 @@
       <c r="BY9" s="38"/>
       <c r="BZ9" s="38"/>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A10" s="29">
         <v>0.5</v>
       </c>
@@ -20685,7 +20685,7 @@
       <c r="BY10" s="38"/>
       <c r="BZ10" s="38"/>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A11" s="29">
         <v>0.5</v>
       </c>
@@ -20783,7 +20783,7 @@
       <c r="BY11" s="38"/>
       <c r="BZ11" s="38"/>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A12" s="29">
         <v>0.25</v>
       </c>
@@ -20881,7 +20881,7 @@
       <c r="BY12" s="38"/>
       <c r="BZ12" s="38"/>
     </row>
-    <row r="13" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A13" s="29">
         <v>0.25</v>
       </c>
@@ -20946,7 +20946,7 @@
         <v>-9441</v>
       </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A14" s="29">
         <v>0.25</v>
       </c>
@@ -21011,7 +21011,7 @@
         <v>-8809</v>
       </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A15" s="29">
         <v>0.25</v>
       </c>
@@ -21076,7 +21076,7 @@
         <v>-8578</v>
       </c>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A16" s="29">
         <v>0.25</v>
       </c>
@@ -21141,7 +21141,7 @@
         <v>-2132</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="29">
         <v>0.25</v>
       </c>
@@ -21206,7 +21206,7 @@
         <v>-681</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="29">
         <v>0.25</v>
       </c>
@@ -21271,7 +21271,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="29">
         <v>0.25</v>
       </c>
@@ -21336,7 +21336,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
@@ -21416,7 +21416,7 @@
         <v>-24101</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -21496,7 +21496,7 @@
         <v>-24100</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -21576,7 +21576,7 @@
         <v>-24101</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
@@ -21656,7 +21656,7 @@
         <v>-24100</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
@@ -21736,7 +21736,7 @@
         <v>-21825</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
@@ -21816,7 +21816,7 @@
         <v>-21825</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
@@ -21896,7 +21896,7 @@
         <v>-21825</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
@@ -21976,21 +21976,31 @@
         <v>-21824</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="G29" s="34"/>
     </row>
-    <row r="39" spans="44:44" x14ac:dyDescent="0.25">
+    <row r="39" spans="44:44" x14ac:dyDescent="0.2">
       <c r="AR39" s="28" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="BL2:BN2"/>
+    <mergeCell ref="BO2:BQ2"/>
+    <mergeCell ref="BR2:BT2"/>
+    <mergeCell ref="BU2:BW2"/>
+    <mergeCell ref="BX2:BZ2"/>
+    <mergeCell ref="AW2:AY2"/>
+    <mergeCell ref="AZ2:BB2"/>
+    <mergeCell ref="BC2:BE2"/>
+    <mergeCell ref="BF2:BH2"/>
+    <mergeCell ref="BI2:BK2"/>
+    <mergeCell ref="AW1:BB1"/>
+    <mergeCell ref="BC1:BH1"/>
+    <mergeCell ref="BI1:BN1"/>
+    <mergeCell ref="BO1:BT1"/>
+    <mergeCell ref="BU1:BZ1"/>
     <mergeCell ref="G3:U3"/>
     <mergeCell ref="AK2:AM2"/>
     <mergeCell ref="AN2:AP2"/>
@@ -22003,21 +22013,11 @@
     <mergeCell ref="AE1:AJ1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:U1"/>
-    <mergeCell ref="AW1:BB1"/>
-    <mergeCell ref="BC1:BH1"/>
-    <mergeCell ref="BI1:BN1"/>
-    <mergeCell ref="BO1:BT1"/>
-    <mergeCell ref="BU1:BZ1"/>
-    <mergeCell ref="AW2:AY2"/>
-    <mergeCell ref="AZ2:BB2"/>
-    <mergeCell ref="BC2:BE2"/>
-    <mergeCell ref="BF2:BH2"/>
-    <mergeCell ref="BI2:BK2"/>
-    <mergeCell ref="BL2:BN2"/>
-    <mergeCell ref="BO2:BQ2"/>
-    <mergeCell ref="BR2:BT2"/>
-    <mergeCell ref="BU2:BW2"/>
-    <mergeCell ref="BX2:BZ2"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="57" orientation="landscape" r:id="rId1"/>
@@ -22033,146 +22033,146 @@
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="6.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="7.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="7.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="15" max="21" width="8.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.85546875" style="28"/>
-    <col min="23" max="23" width="24.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="6.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="7.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="21" width="8.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.83203125" style="28"/>
+    <col min="23" max="23" width="24.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.1640625" style="28" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="7" style="28" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.1640625" style="28" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="7" style="28" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="7.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="7.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="8.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="7.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="42" max="48" width="8.85546875" style="28"/>
+    <col min="30" max="31" width="7.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="7.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="8.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="7.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="42" max="48" width="8.83203125" style="28"/>
     <col min="49" max="49" width="26" style="28" bestFit="1" customWidth="1"/>
-    <col min="50" max="79" width="6.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="80" max="16384" width="8.85546875" style="28"/>
+    <col min="50" max="79" width="6.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="80" max="16384" width="8.83203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="B1" s="44" t="s">
+    <row r="1" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="B1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="45" t="s">
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44" t="s">
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44" t="s">
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44" t="s">
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44" t="s">
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
       <c r="W1" s="2"/>
-      <c r="X1" s="44" t="s">
+      <c r="X1" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44" t="s">
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="46" t="s">
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="46"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72"/>
       <c r="AW1" s="2"/>
-      <c r="AX1" s="44" t="s">
+      <c r="AX1" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="44"/>
-      <c r="BA1" s="44"/>
-      <c r="BB1" s="44"/>
-      <c r="BC1" s="44"/>
-      <c r="BD1" s="44" t="s">
+      <c r="AY1" s="73"/>
+      <c r="AZ1" s="73"/>
+      <c r="BA1" s="73"/>
+      <c r="BB1" s="73"/>
+      <c r="BC1" s="73"/>
+      <c r="BD1" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="BE1" s="44"/>
-      <c r="BF1" s="44"/>
-      <c r="BG1" s="44"/>
-      <c r="BH1" s="44"/>
-      <c r="BI1" s="44"/>
-      <c r="BJ1" s="44" t="s">
+      <c r="BE1" s="73"/>
+      <c r="BF1" s="73"/>
+      <c r="BG1" s="73"/>
+      <c r="BH1" s="73"/>
+      <c r="BI1" s="73"/>
+      <c r="BJ1" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="BK1" s="44"/>
-      <c r="BL1" s="44"/>
-      <c r="BM1" s="44"/>
-      <c r="BN1" s="44"/>
-      <c r="BO1" s="44"/>
-      <c r="BP1" s="44" t="s">
+      <c r="BK1" s="73"/>
+      <c r="BL1" s="73"/>
+      <c r="BM1" s="73"/>
+      <c r="BN1" s="73"/>
+      <c r="BO1" s="73"/>
+      <c r="BP1" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="BQ1" s="44"/>
-      <c r="BR1" s="44"/>
-      <c r="BS1" s="44"/>
-      <c r="BT1" s="44"/>
-      <c r="BU1" s="44"/>
-      <c r="BV1" s="44" t="s">
+      <c r="BQ1" s="73"/>
+      <c r="BR1" s="73"/>
+      <c r="BS1" s="73"/>
+      <c r="BT1" s="73"/>
+      <c r="BU1" s="73"/>
+      <c r="BV1" s="73" t="s">
         <v>118</v>
       </c>
-      <c r="BW1" s="44"/>
-      <c r="BX1" s="44"/>
-      <c r="BY1" s="44"/>
-      <c r="BZ1" s="44"/>
-      <c r="CA1" s="44"/>
+      <c r="BW1" s="73"/>
+      <c r="BX1" s="73"/>
+      <c r="BY1" s="73"/>
+      <c r="BZ1" s="73"/>
+      <c r="CA1" s="73"/>
     </row>
-    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+    <row r="2" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="B2" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -22219,89 +22219,89 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="W2" s="26"/>
-      <c r="X2" s="46" t="s">
+      <c r="X2" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46" t="s">
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46" t="s">
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46" t="s">
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46" t="s">
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="46" t="s">
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="AN2" s="46"/>
-      <c r="AO2" s="46"/>
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="72"/>
       <c r="AW2" s="26"/>
-      <c r="AX2" s="46" t="s">
+      <c r="AX2" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="46"/>
-      <c r="BA2" s="46" t="s">
+      <c r="AY2" s="72"/>
+      <c r="AZ2" s="72"/>
+      <c r="BA2" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="BB2" s="46"/>
-      <c r="BC2" s="46"/>
-      <c r="BD2" s="46" t="s">
+      <c r="BB2" s="72"/>
+      <c r="BC2" s="72"/>
+      <c r="BD2" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="BE2" s="46"/>
-      <c r="BF2" s="46"/>
-      <c r="BG2" s="46" t="s">
+      <c r="BE2" s="72"/>
+      <c r="BF2" s="72"/>
+      <c r="BG2" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="BH2" s="46"/>
-      <c r="BI2" s="46"/>
-      <c r="BJ2" s="46" t="s">
+      <c r="BH2" s="72"/>
+      <c r="BI2" s="72"/>
+      <c r="BJ2" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="BK2" s="46"/>
-      <c r="BL2" s="46"/>
-      <c r="BM2" s="46" t="s">
+      <c r="BK2" s="72"/>
+      <c r="BL2" s="72"/>
+      <c r="BM2" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="BN2" s="46"/>
-      <c r="BO2" s="46"/>
-      <c r="BP2" s="46" t="s">
+      <c r="BN2" s="72"/>
+      <c r="BO2" s="72"/>
+      <c r="BP2" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="BQ2" s="46"/>
-      <c r="BR2" s="46"/>
-      <c r="BS2" s="46" t="s">
+      <c r="BQ2" s="72"/>
+      <c r="BR2" s="72"/>
+      <c r="BS2" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="BT2" s="46"/>
-      <c r="BU2" s="46"/>
-      <c r="BV2" s="46" t="s">
+      <c r="BT2" s="72"/>
+      <c r="BU2" s="72"/>
+      <c r="BV2" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="BW2" s="46"/>
-      <c r="BX2" s="46"/>
-      <c r="BY2" s="46" t="s">
+      <c r="BW2" s="72"/>
+      <c r="BX2" s="72"/>
+      <c r="BY2" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="BZ2" s="46"/>
-      <c r="CA2" s="46"/>
+      <c r="BZ2" s="72"/>
+      <c r="CA2" s="72"/>
     </row>
-    <row r="3" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
         <v>18</v>
       </c>
@@ -22320,23 +22320,23 @@
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2" t="s">
         <v>111</v>
@@ -22484,7 +22484,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A4" s="29">
         <v>0.5</v>
       </c>
@@ -22503,49 +22503,49 @@
       <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="55">
+      <c r="G4" s="45">
         <v>4176</v>
       </c>
-      <c r="H4" s="55">
+      <c r="H4" s="45">
         <v>4176</v>
       </c>
-      <c r="I4" s="55">
+      <c r="I4" s="45">
         <v>4176</v>
       </c>
-      <c r="J4" s="55">
+      <c r="J4" s="45">
         <v>6425</v>
       </c>
-      <c r="K4" s="55">
+      <c r="K4" s="45">
         <v>5925</v>
       </c>
-      <c r="L4" s="55">
+      <c r="L4" s="45">
         <v>4991</v>
       </c>
-      <c r="M4" s="55">
+      <c r="M4" s="45">
         <v>9421</v>
       </c>
-      <c r="N4" s="55">
+      <c r="N4" s="45">
         <v>8255</v>
       </c>
-      <c r="O4" s="55">
+      <c r="O4" s="45">
         <v>6075</v>
       </c>
-      <c r="P4" s="55">
+      <c r="P4" s="45">
         <v>12419</v>
       </c>
-      <c r="Q4" s="55">
+      <c r="Q4" s="45">
         <v>10587</v>
       </c>
-      <c r="R4" s="55">
+      <c r="R4" s="45">
         <v>7160</v>
       </c>
-      <c r="S4" s="55">
+      <c r="S4" s="45">
         <v>15416</v>
       </c>
-      <c r="T4" s="55">
+      <c r="T4" s="45">
         <v>12918</v>
       </c>
-      <c r="U4" s="56">
+      <c r="U4" s="46">
         <v>8246</v>
       </c>
       <c r="W4" s="2" t="s">
@@ -22651,7 +22651,7 @@
       <c r="BZ4" s="37"/>
       <c r="CA4" s="37"/>
     </row>
-    <row r="5" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A5" s="29">
         <v>0.5</v>
       </c>
@@ -22670,49 +22670,49 @@
       <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="55">
+      <c r="G5" s="45">
         <v>4176</v>
       </c>
-      <c r="H5" s="55">
+      <c r="H5" s="45">
         <v>4176</v>
       </c>
-      <c r="I5" s="55">
+      <c r="I5" s="45">
         <v>4176</v>
       </c>
-      <c r="J5" s="55">
+      <c r="J5" s="45">
         <v>6619</v>
       </c>
-      <c r="K5" s="55">
+      <c r="K5" s="45">
         <v>6119</v>
       </c>
-      <c r="L5" s="55">
+      <c r="L5" s="45">
         <v>5185</v>
       </c>
-      <c r="M5" s="55">
+      <c r="M5" s="45">
         <v>9873</v>
       </c>
-      <c r="N5" s="55">
+      <c r="N5" s="45">
         <v>8708</v>
       </c>
-      <c r="O5" s="55">
+      <c r="O5" s="45">
         <v>6527</v>
       </c>
-      <c r="P5" s="55">
+      <c r="P5" s="45">
         <v>13130</v>
       </c>
-      <c r="Q5" s="55">
+      <c r="Q5" s="45">
         <v>11298</v>
       </c>
-      <c r="R5" s="55">
+      <c r="R5" s="45">
         <v>7871</v>
       </c>
-      <c r="S5" s="55">
+      <c r="S5" s="45">
         <v>16386</v>
       </c>
-      <c r="T5" s="55">
+      <c r="T5" s="45">
         <v>13887</v>
       </c>
-      <c r="U5" s="56">
+      <c r="U5" s="46">
         <v>9215</v>
       </c>
       <c r="W5" s="2" t="s">
@@ -22818,7 +22818,7 @@
       <c r="BZ5" s="37"/>
       <c r="CA5" s="37"/>
     </row>
-    <row r="6" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A6" s="29">
         <v>0.5</v>
       </c>
@@ -22837,49 +22837,49 @@
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="45">
         <v>4176</v>
       </c>
-      <c r="H6" s="55">
+      <c r="H6" s="45">
         <v>4176</v>
       </c>
-      <c r="I6" s="55">
+      <c r="I6" s="45">
         <v>4176</v>
       </c>
-      <c r="J6" s="55">
+      <c r="J6" s="45">
         <v>6746</v>
       </c>
-      <c r="K6" s="55">
+      <c r="K6" s="45">
         <v>6246</v>
       </c>
-      <c r="L6" s="55">
+      <c r="L6" s="45">
         <v>5312</v>
       </c>
-      <c r="M6" s="55">
+      <c r="M6" s="45">
         <v>10169</v>
       </c>
-      <c r="N6" s="55">
+      <c r="N6" s="45">
         <v>9003</v>
       </c>
-      <c r="O6" s="55">
+      <c r="O6" s="45">
         <v>6823</v>
       </c>
-      <c r="P6" s="55">
+      <c r="P6" s="45">
         <v>13594</v>
       </c>
-      <c r="Q6" s="55">
+      <c r="Q6" s="45">
         <v>11762</v>
       </c>
-      <c r="R6" s="55">
+      <c r="R6" s="45">
         <v>8335</v>
       </c>
-      <c r="S6" s="55">
+      <c r="S6" s="45">
         <v>17018</v>
       </c>
-      <c r="T6" s="55">
+      <c r="T6" s="45">
         <v>14520</v>
       </c>
-      <c r="U6" s="56">
+      <c r="U6" s="46">
         <v>9848</v>
       </c>
       <c r="W6" s="2" t="s">
@@ -22985,7 +22985,7 @@
       <c r="BZ6" s="37"/>
       <c r="CA6" s="37"/>
     </row>
-    <row r="7" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A7" s="29">
         <v>0.5</v>
       </c>
@@ -23004,49 +23004,49 @@
       <c r="F7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="55">
+      <c r="G7" s="45">
         <v>4176</v>
       </c>
-      <c r="H7" s="55">
+      <c r="H7" s="45">
         <v>4176</v>
       </c>
-      <c r="I7" s="55">
+      <c r="I7" s="45">
         <v>4176</v>
       </c>
-      <c r="J7" s="55">
+      <c r="J7" s="45">
         <v>6792</v>
       </c>
-      <c r="K7" s="55">
+      <c r="K7" s="45">
         <v>6292</v>
       </c>
-      <c r="L7" s="55">
+      <c r="L7" s="45">
         <v>5357</v>
       </c>
-      <c r="M7" s="55">
+      <c r="M7" s="45">
         <v>10276</v>
       </c>
-      <c r="N7" s="55">
+      <c r="N7" s="45">
         <v>9110</v>
       </c>
-      <c r="O7" s="55">
+      <c r="O7" s="45">
         <v>6930</v>
       </c>
-      <c r="P7" s="55">
+      <c r="P7" s="45">
         <v>13762</v>
       </c>
-      <c r="Q7" s="55">
+      <c r="Q7" s="45">
         <v>11930</v>
       </c>
-      <c r="R7" s="55">
+      <c r="R7" s="45">
         <v>8504</v>
       </c>
-      <c r="S7" s="55">
+      <c r="S7" s="45">
         <v>17249</v>
       </c>
-      <c r="T7" s="55">
+      <c r="T7" s="45">
         <v>14750</v>
       </c>
-      <c r="U7" s="56">
+      <c r="U7" s="46">
         <v>10078</v>
       </c>
       <c r="W7" s="2" t="s">
@@ -23152,7 +23152,7 @@
       <c r="BZ7" s="37"/>
       <c r="CA7" s="37"/>
     </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A8" s="29">
         <v>0.5</v>
       </c>
@@ -23171,49 +23171,49 @@
       <c r="F8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="55">
+      <c r="G8" s="45">
         <v>4176</v>
       </c>
-      <c r="H8" s="55">
+      <c r="H8" s="45">
         <v>4176</v>
       </c>
-      <c r="I8" s="55">
+      <c r="I8" s="45">
         <v>4176</v>
       </c>
-      <c r="J8" s="55">
+      <c r="J8" s="45">
         <v>6924</v>
       </c>
-      <c r="K8" s="55">
+      <c r="K8" s="45">
         <v>6558</v>
       </c>
-      <c r="L8" s="55">
+      <c r="L8" s="45">
         <v>6191</v>
       </c>
-      <c r="M8" s="55">
+      <c r="M8" s="45">
         <v>10588</v>
       </c>
-      <c r="N8" s="55">
+      <c r="N8" s="45">
         <v>9732</v>
       </c>
-      <c r="O8" s="55">
+      <c r="O8" s="45">
         <v>8877</v>
       </c>
-      <c r="P8" s="55">
+      <c r="P8" s="45">
         <v>14251</v>
       </c>
-      <c r="Q8" s="55">
+      <c r="Q8" s="45">
         <v>12907</v>
       </c>
-      <c r="R8" s="55">
+      <c r="R8" s="45">
         <v>11563</v>
       </c>
-      <c r="S8" s="55">
+      <c r="S8" s="45">
         <v>17915</v>
       </c>
-      <c r="T8" s="55">
+      <c r="T8" s="45">
         <v>16082</v>
       </c>
-      <c r="U8" s="56">
+      <c r="U8" s="46">
         <v>14249</v>
       </c>
       <c r="W8" s="2" t="s">
@@ -23307,7 +23307,7 @@
       <c r="BZ8" s="37"/>
       <c r="CA8" s="37"/>
     </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A9" s="29">
         <v>0.5</v>
       </c>
@@ -23326,49 +23326,49 @@
       <c r="F9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="55">
+      <c r="G9" s="45">
         <v>4176</v>
       </c>
-      <c r="H9" s="55">
+      <c r="H9" s="45">
         <v>4176</v>
       </c>
-      <c r="I9" s="55">
+      <c r="I9" s="45">
         <v>4176</v>
       </c>
-      <c r="J9" s="55">
+      <c r="J9" s="45">
         <v>7215</v>
       </c>
-      <c r="K9" s="55">
+      <c r="K9" s="45">
         <v>6848</v>
       </c>
-      <c r="L9" s="55">
+      <c r="L9" s="45">
         <v>6481</v>
       </c>
-      <c r="M9" s="55">
+      <c r="M9" s="45">
         <v>11265</v>
       </c>
-      <c r="N9" s="55">
+      <c r="N9" s="45">
         <v>10410</v>
       </c>
-      <c r="O9" s="55">
+      <c r="O9" s="45">
         <v>9554</v>
       </c>
-      <c r="P9" s="55">
+      <c r="P9" s="45">
         <v>15316</v>
       </c>
-      <c r="Q9" s="55">
+      <c r="Q9" s="45">
         <v>13972</v>
       </c>
-      <c r="R9" s="55">
+      <c r="R9" s="45">
         <v>12627</v>
       </c>
-      <c r="S9" s="55">
+      <c r="S9" s="45">
         <v>19367</v>
       </c>
-      <c r="T9" s="55">
+      <c r="T9" s="45">
         <v>17534</v>
       </c>
-      <c r="U9" s="56">
+      <c r="U9" s="46">
         <v>15700</v>
       </c>
       <c r="W9" s="11"/>
@@ -23424,7 +23424,7 @@
       <c r="BZ9" s="37"/>
       <c r="CA9" s="37"/>
     </row>
-    <row r="10" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A10" s="29">
         <v>0.5</v>
       </c>
@@ -23443,49 +23443,49 @@
       <c r="F10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="55">
+      <c r="G10" s="45">
         <v>4176</v>
       </c>
-      <c r="H10" s="55">
+      <c r="H10" s="45">
         <v>4176</v>
       </c>
-      <c r="I10" s="55">
+      <c r="I10" s="45">
         <v>4176</v>
       </c>
-      <c r="J10" s="55">
+      <c r="J10" s="45">
         <v>7358</v>
       </c>
-      <c r="K10" s="55">
+      <c r="K10" s="45">
         <v>6991</v>
       </c>
-      <c r="L10" s="55">
+      <c r="L10" s="45">
         <v>6625</v>
       </c>
-      <c r="M10" s="55">
+      <c r="M10" s="45">
         <v>11599</v>
       </c>
-      <c r="N10" s="55">
+      <c r="N10" s="45">
         <v>10743</v>
       </c>
-      <c r="O10" s="55">
+      <c r="O10" s="45">
         <v>9888</v>
       </c>
-      <c r="P10" s="55">
+      <c r="P10" s="45">
         <v>15841</v>
       </c>
-      <c r="Q10" s="55">
+      <c r="Q10" s="45">
         <v>14496</v>
       </c>
-      <c r="R10" s="55">
+      <c r="R10" s="45">
         <v>13152</v>
       </c>
-      <c r="S10" s="55">
+      <c r="S10" s="45">
         <v>20082</v>
       </c>
-      <c r="T10" s="55">
+      <c r="T10" s="45">
         <v>18249</v>
       </c>
-      <c r="U10" s="56">
+      <c r="U10" s="46">
         <v>16416</v>
       </c>
       <c r="W10" s="11"/>
@@ -23541,7 +23541,7 @@
       <c r="BZ10" s="37"/>
       <c r="CA10" s="37"/>
     </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A11" s="29">
         <v>0.5</v>
       </c>
@@ -23560,49 +23560,49 @@
       <c r="F11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="57">
+      <c r="G11" s="47">
         <v>4176</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="47">
         <v>4176</v>
       </c>
-      <c r="I11" s="57">
+      <c r="I11" s="47">
         <v>4176</v>
       </c>
-      <c r="J11" s="57">
+      <c r="J11" s="47">
         <v>7446</v>
       </c>
-      <c r="K11" s="57">
+      <c r="K11" s="47">
         <v>7080</v>
       </c>
-      <c r="L11" s="57">
+      <c r="L11" s="47">
         <v>6713</v>
       </c>
-      <c r="M11" s="57">
+      <c r="M11" s="47">
         <v>11805</v>
       </c>
-      <c r="N11" s="57">
+      <c r="N11" s="47">
         <v>10950</v>
       </c>
-      <c r="O11" s="57">
+      <c r="O11" s="47">
         <v>10094</v>
       </c>
-      <c r="P11" s="57">
+      <c r="P11" s="47">
         <v>16165</v>
       </c>
-      <c r="Q11" s="57">
+      <c r="Q11" s="47">
         <v>14820</v>
       </c>
-      <c r="R11" s="57">
+      <c r="R11" s="47">
         <v>13476</v>
       </c>
-      <c r="S11" s="57">
+      <c r="S11" s="47">
         <v>20524</v>
       </c>
-      <c r="T11" s="57">
+      <c r="T11" s="47">
         <v>18691</v>
       </c>
-      <c r="U11" s="58">
+      <c r="U11" s="48">
         <v>16858</v>
       </c>
       <c r="AW11" s="2" t="s">
@@ -23639,7 +23639,7 @@
       <c r="BZ11" s="37"/>
       <c r="CA11" s="37"/>
     </row>
-    <row r="12" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A12" s="29">
         <v>0.25</v>
       </c>
@@ -23658,49 +23658,49 @@
       <c r="F12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="55">
+      <c r="G12" s="45">
         <v>4176</v>
       </c>
-      <c r="H12" s="55">
+      <c r="H12" s="45">
         <v>4176</v>
       </c>
-      <c r="I12" s="55">
+      <c r="I12" s="45">
         <v>4176</v>
       </c>
-      <c r="J12" s="55">
+      <c r="J12" s="45">
         <v>3129</v>
       </c>
-      <c r="K12" s="55">
+      <c r="K12" s="45">
         <v>2098</v>
       </c>
-      <c r="L12" s="55">
+      <c r="L12" s="45">
         <v>171</v>
       </c>
-      <c r="M12" s="55">
+      <c r="M12" s="45">
         <v>1730</v>
       </c>
-      <c r="N12" s="55">
+      <c r="N12" s="45">
         <v>-675</v>
       </c>
-      <c r="O12" s="55">
+      <c r="O12" s="45">
         <v>-5172</v>
       </c>
-      <c r="P12" s="55">
+      <c r="P12" s="45">
         <v>333</v>
       </c>
-      <c r="Q12" s="55">
+      <c r="Q12" s="45">
         <v>-3446</v>
       </c>
-      <c r="R12" s="55">
+      <c r="R12" s="45">
         <v>-10513</v>
       </c>
-      <c r="S12" s="55">
+      <c r="S12" s="45">
         <v>-1064</v>
       </c>
-      <c r="T12" s="55">
+      <c r="T12" s="45">
         <v>-6218</v>
       </c>
-      <c r="U12" s="56">
+      <c r="U12" s="46">
         <v>-15855</v>
       </c>
       <c r="AW12" s="2" t="s">
@@ -23737,7 +23737,7 @@
       <c r="BZ12" s="37"/>
       <c r="CA12" s="37"/>
     </row>
-    <row r="13" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A13" s="29">
         <v>0.25</v>
       </c>
@@ -23756,53 +23756,53 @@
       <c r="F13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="55">
+      <c r="G13" s="45">
         <v>4176</v>
       </c>
-      <c r="H13" s="55">
+      <c r="H13" s="45">
         <v>4176</v>
       </c>
-      <c r="I13" s="55">
+      <c r="I13" s="45">
         <v>4176</v>
       </c>
-      <c r="J13" s="55">
+      <c r="J13" s="45">
         <v>3323</v>
       </c>
-      <c r="K13" s="55">
+      <c r="K13" s="45">
         <v>2292</v>
       </c>
-      <c r="L13" s="55">
+      <c r="L13" s="45">
         <v>365</v>
       </c>
-      <c r="M13" s="55">
+      <c r="M13" s="45">
         <v>2183</v>
       </c>
-      <c r="N13" s="55">
+      <c r="N13" s="45">
         <v>-222</v>
       </c>
-      <c r="O13" s="55">
+      <c r="O13" s="45">
         <v>-4720</v>
       </c>
-      <c r="P13" s="55">
+      <c r="P13" s="45">
         <v>1044</v>
       </c>
-      <c r="Q13" s="55">
+      <c r="Q13" s="45">
         <v>-2735</v>
       </c>
-      <c r="R13" s="55">
+      <c r="R13" s="45">
         <v>-9802</v>
       </c>
-      <c r="S13" s="55">
+      <c r="S13" s="45">
         <v>-95</v>
       </c>
-      <c r="T13" s="55">
+      <c r="T13" s="45">
         <v>-5248</v>
       </c>
-      <c r="U13" s="56">
+      <c r="U13" s="46">
         <v>-14885</v>
       </c>
     </row>
-    <row r="14" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A14" s="29">
         <v>0.25</v>
       </c>
@@ -23821,53 +23821,53 @@
       <c r="F14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="55">
+      <c r="G14" s="45">
         <v>4176</v>
       </c>
-      <c r="H14" s="55">
+      <c r="H14" s="45">
         <v>4176</v>
       </c>
-      <c r="I14" s="55">
+      <c r="I14" s="45">
         <v>4176</v>
       </c>
-      <c r="J14" s="55">
+      <c r="J14" s="45">
         <v>3450</v>
       </c>
-      <c r="K14" s="55">
+      <c r="K14" s="45">
         <v>2419</v>
       </c>
-      <c r="L14" s="55">
+      <c r="L14" s="45">
         <v>492</v>
       </c>
-      <c r="M14" s="55">
+      <c r="M14" s="45">
         <v>2478</v>
       </c>
-      <c r="N14" s="55">
+      <c r="N14" s="45">
         <v>73</v>
       </c>
-      <c r="O14" s="55">
+      <c r="O14" s="45">
         <v>-4424</v>
       </c>
-      <c r="P14" s="55">
+      <c r="P14" s="45">
         <v>1508</v>
       </c>
-      <c r="Q14" s="55">
+      <c r="Q14" s="45">
         <v>-2271</v>
       </c>
-      <c r="R14" s="55">
+      <c r="R14" s="45">
         <v>-9338</v>
       </c>
-      <c r="S14" s="55">
+      <c r="S14" s="45">
         <v>538</v>
       </c>
-      <c r="T14" s="55">
+      <c r="T14" s="45">
         <v>-4615</v>
       </c>
-      <c r="U14" s="56">
+      <c r="U14" s="46">
         <v>-14252</v>
       </c>
     </row>
-    <row r="15" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A15" s="29">
         <v>0.25</v>
       </c>
@@ -23886,53 +23886,53 @@
       <c r="F15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="55">
+      <c r="G15" s="45">
         <v>4176</v>
       </c>
-      <c r="H15" s="55">
+      <c r="H15" s="45">
         <v>4176</v>
       </c>
-      <c r="I15" s="55">
+      <c r="I15" s="45">
         <v>4176</v>
       </c>
-      <c r="J15" s="55">
+      <c r="J15" s="45">
         <v>3495</v>
       </c>
-      <c r="K15" s="55">
+      <c r="K15" s="45">
         <v>2465</v>
       </c>
-      <c r="L15" s="55">
+      <c r="L15" s="45">
         <v>537</v>
       </c>
-      <c r="M15" s="55">
+      <c r="M15" s="45">
         <v>2585</v>
       </c>
-      <c r="N15" s="55">
+      <c r="N15" s="45">
         <v>180</v>
       </c>
-      <c r="O15" s="55">
+      <c r="O15" s="45">
         <v>-4317</v>
       </c>
-      <c r="P15" s="55">
+      <c r="P15" s="45">
         <v>1677</v>
       </c>
-      <c r="Q15" s="55">
+      <c r="Q15" s="45">
         <v>-2102</v>
       </c>
-      <c r="R15" s="55">
+      <c r="R15" s="45">
         <v>-9169</v>
       </c>
-      <c r="S15" s="55">
+      <c r="S15" s="45">
         <v>768</v>
       </c>
-      <c r="T15" s="55">
+      <c r="T15" s="45">
         <v>-4385</v>
       </c>
-      <c r="U15" s="56">
+      <c r="U15" s="46">
         <v>-14022</v>
       </c>
     </row>
-    <row r="16" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A16" s="29">
         <v>0.25</v>
       </c>
@@ -23951,53 +23951,53 @@
       <c r="F16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="55">
+      <c r="G16" s="45">
         <v>4176</v>
       </c>
-      <c r="H16" s="55">
+      <c r="H16" s="45">
         <v>4176</v>
       </c>
-      <c r="I16" s="55">
+      <c r="I16" s="45">
         <v>4176</v>
       </c>
-      <c r="J16" s="55">
+      <c r="J16" s="45">
         <v>3339</v>
       </c>
-      <c r="K16" s="55">
+      <c r="K16" s="45">
         <v>2582</v>
       </c>
-      <c r="L16" s="55">
+      <c r="L16" s="45">
         <v>1826</v>
       </c>
-      <c r="M16" s="55">
+      <c r="M16" s="45">
         <v>2221</v>
       </c>
-      <c r="N16" s="55">
+      <c r="N16" s="45">
         <v>456</v>
       </c>
-      <c r="O16" s="55">
+      <c r="O16" s="45">
         <v>-1308</v>
       </c>
-      <c r="P16" s="55">
+      <c r="P16" s="45">
         <v>1104</v>
       </c>
-      <c r="Q16" s="55">
+      <c r="Q16" s="45">
         <v>-1669</v>
       </c>
-      <c r="R16" s="55">
+      <c r="R16" s="45">
         <v>-4442</v>
       </c>
-      <c r="S16" s="55">
+      <c r="S16" s="45">
         <v>-14</v>
       </c>
-      <c r="T16" s="55">
+      <c r="T16" s="45">
         <v>-3795</v>
       </c>
-      <c r="U16" s="56">
+      <c r="U16" s="46">
         <v>-7576</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="29">
         <v>0.25</v>
       </c>
@@ -24016,53 +24016,53 @@
       <c r="F17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="55">
+      <c r="G17" s="45">
         <v>4176</v>
       </c>
-      <c r="H17" s="55">
+      <c r="H17" s="45">
         <v>4176</v>
       </c>
-      <c r="I17" s="55">
+      <c r="I17" s="45">
         <v>4176</v>
       </c>
-      <c r="J17" s="55">
+      <c r="J17" s="45">
         <v>3629</v>
       </c>
-      <c r="K17" s="55">
+      <c r="K17" s="45">
         <v>2873</v>
       </c>
-      <c r="L17" s="55">
+      <c r="L17" s="45">
         <v>2116</v>
       </c>
-      <c r="M17" s="55">
+      <c r="M17" s="45">
         <v>2898</v>
       </c>
-      <c r="N17" s="55">
+      <c r="N17" s="45">
         <v>1134</v>
       </c>
-      <c r="O17" s="55">
+      <c r="O17" s="45">
         <v>-631</v>
       </c>
-      <c r="P17" s="55">
+      <c r="P17" s="45">
         <v>2168</v>
       </c>
-      <c r="Q17" s="55">
+      <c r="Q17" s="45">
         <v>-605</v>
       </c>
-      <c r="R17" s="55">
+      <c r="R17" s="45">
         <v>-3378</v>
       </c>
-      <c r="S17" s="55">
+      <c r="S17" s="45">
         <v>1438</v>
       </c>
-      <c r="T17" s="55">
+      <c r="T17" s="45">
         <v>-2343</v>
       </c>
-      <c r="U17" s="56">
+      <c r="U17" s="46">
         <v>-6124</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="29">
         <v>0.25</v>
       </c>
@@ -24081,53 +24081,53 @@
       <c r="F18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="55">
+      <c r="G18" s="45">
         <v>4176</v>
       </c>
-      <c r="H18" s="55">
+      <c r="H18" s="45">
         <v>4176</v>
       </c>
-      <c r="I18" s="55">
+      <c r="I18" s="45">
         <v>4176</v>
       </c>
-      <c r="J18" s="55">
+      <c r="J18" s="45">
         <v>3772</v>
       </c>
-      <c r="K18" s="55">
+      <c r="K18" s="45">
         <v>3016</v>
       </c>
-      <c r="L18" s="55">
+      <c r="L18" s="45">
         <v>2260</v>
       </c>
-      <c r="M18" s="55">
+      <c r="M18" s="45">
         <v>3232</v>
       </c>
-      <c r="N18" s="55">
+      <c r="N18" s="45">
         <v>1468</v>
       </c>
-      <c r="O18" s="55">
+      <c r="O18" s="45">
         <v>-297</v>
       </c>
-      <c r="P18" s="55">
+      <c r="P18" s="45">
         <v>2693</v>
       </c>
-      <c r="Q18" s="55">
+      <c r="Q18" s="45">
         <v>-80</v>
       </c>
-      <c r="R18" s="55">
+      <c r="R18" s="45">
         <v>-2853</v>
       </c>
-      <c r="S18" s="55">
+      <c r="S18" s="45">
         <v>2154</v>
       </c>
-      <c r="T18" s="55">
+      <c r="T18" s="45">
         <v>-1628</v>
       </c>
-      <c r="U18" s="56">
+      <c r="U18" s="46">
         <v>-5409</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="29">
         <v>0.25</v>
       </c>
@@ -24146,53 +24146,53 @@
       <c r="F19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="57">
+      <c r="G19" s="47">
         <v>4176</v>
       </c>
-      <c r="H19" s="57">
+      <c r="H19" s="47">
         <v>4176</v>
       </c>
-      <c r="I19" s="57">
+      <c r="I19" s="47">
         <v>4176</v>
       </c>
-      <c r="J19" s="57">
+      <c r="J19" s="47">
         <v>3860</v>
       </c>
-      <c r="K19" s="57">
+      <c r="K19" s="47">
         <v>3104</v>
       </c>
-      <c r="L19" s="57">
+      <c r="L19" s="47">
         <v>2348</v>
       </c>
-      <c r="M19" s="57">
+      <c r="M19" s="47">
         <v>3438</v>
       </c>
-      <c r="N19" s="57">
+      <c r="N19" s="47">
         <v>1674</v>
       </c>
-      <c r="O19" s="57">
+      <c r="O19" s="47">
         <v>-91</v>
       </c>
-      <c r="P19" s="57">
+      <c r="P19" s="47">
         <v>3017</v>
       </c>
-      <c r="Q19" s="57">
+      <c r="Q19" s="47">
         <v>244</v>
       </c>
-      <c r="R19" s="57">
+      <c r="R19" s="47">
         <v>-2529</v>
       </c>
-      <c r="S19" s="57">
+      <c r="S19" s="47">
         <v>2595</v>
       </c>
-      <c r="T19" s="57">
+      <c r="T19" s="47">
         <v>-1186</v>
       </c>
-      <c r="U19" s="58">
+      <c r="U19" s="48">
         <v>-4967</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
@@ -24272,7 +24272,7 @@
         <v>-24101</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -24352,7 +24352,7 @@
         <v>-24100</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -24432,7 +24432,7 @@
         <v>-24100</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
@@ -24512,7 +24512,7 @@
         <v>-24100</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
@@ -24592,7 +24592,7 @@
         <v>-21825</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
@@ -24672,7 +24672,7 @@
         <v>-21824</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
@@ -24752,7 +24752,7 @@
         <v>-21825</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
@@ -24832,11 +24832,33 @@
         <v>-21825</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="G28" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="BP1:BU1"/>
+    <mergeCell ref="BP2:BR2"/>
+    <mergeCell ref="BS2:BU2"/>
+    <mergeCell ref="BV1:CA1"/>
+    <mergeCell ref="BV2:BX2"/>
+    <mergeCell ref="BY2:CA2"/>
+    <mergeCell ref="AX1:BC1"/>
+    <mergeCell ref="BD1:BI1"/>
+    <mergeCell ref="BJ1:BO1"/>
+    <mergeCell ref="AX2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="BD2:BF2"/>
+    <mergeCell ref="BG2:BI2"/>
+    <mergeCell ref="BJ2:BL2"/>
+    <mergeCell ref="BM2:BO2"/>
+    <mergeCell ref="G3:U3"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="AM2:AO2"/>
     <mergeCell ref="AJ1:AO1"/>
     <mergeCell ref="B1:F1"/>
@@ -24847,28 +24869,6 @@
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="X1:AC1"/>
     <mergeCell ref="AD1:AI1"/>
-    <mergeCell ref="G3:U3"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AX1:BC1"/>
-    <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="BJ1:BO1"/>
-    <mergeCell ref="AX2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="BD2:BF2"/>
-    <mergeCell ref="BG2:BI2"/>
-    <mergeCell ref="BJ2:BL2"/>
-    <mergeCell ref="BM2:BO2"/>
-    <mergeCell ref="BP1:BU1"/>
-    <mergeCell ref="BP2:BR2"/>
-    <mergeCell ref="BS2:BU2"/>
-    <mergeCell ref="BV1:CA1"/>
-    <mergeCell ref="BV2:BX2"/>
-    <mergeCell ref="BY2:CA2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -24887,74 +24887,74 @@
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="28" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="6.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="18" width="7.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="6.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="18" width="7.5" style="28" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8" style="28" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="7.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.85546875" style="28"/>
-    <col min="24" max="24" width="3.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="25" max="35" width="4.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="7.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.83203125" style="28"/>
+    <col min="24" max="24" width="3.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="25" max="35" width="4.5" style="28" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="78" style="28" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="6.85546875" style="28"/>
+    <col min="37" max="16384" width="6.83203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" s="28" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="63" t="s">
+    <row r="1" spans="2:36" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B2" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="51" t="s">
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49" t="s">
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49" t="s">
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49" t="s">
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="49"/>
-      <c r="V2" s="50"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="84"/>
     </row>
-    <row r="3" spans="2:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="64"/>
-      <c r="C3" s="44" t="s">
+    <row r="3" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B3" s="78"/>
+      <c r="C3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="52"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -25001,8 +25001,8 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="4" spans="2:36" s="28" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="65"/>
+    <row r="4" spans="2:36" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="79"/>
       <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
@@ -25018,38 +25018,38 @@
       <c r="G4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="52"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="66"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="86"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="53"/>
     </row>
-    <row r="5" spans="2:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="67">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B5" s="54">
         <v>0.5</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -25109,63 +25109,63 @@
       <c r="U5" s="30">
         <v>18362</v>
       </c>
-      <c r="V5" s="68">
+      <c r="V5" s="55">
         <v>13690</v>
       </c>
-      <c r="X5" s="69">
+      <c r="X5" s="56">
         <f>(K5-K13)/K5*100</f>
         <v>27.778245850535004</v>
       </c>
-      <c r="Y5" s="70">
+      <c r="Y5" s="57">
         <f t="shared" ref="X5:AI12" si="0">(L5-L13)/L5*100</f>
         <v>33.661711672090775</v>
       </c>
-      <c r="Z5" s="70">
+      <c r="Z5" s="57">
         <f t="shared" si="0"/>
         <v>46.19513130151428</v>
       </c>
-      <c r="AA5" s="70">
+      <c r="AA5" s="57">
         <f t="shared" si="0"/>
         <v>51.738984191052808</v>
       </c>
-      <c r="AB5" s="70">
+      <c r="AB5" s="57">
         <f t="shared" si="0"/>
         <v>65.187239944521508</v>
       </c>
-      <c r="AC5" s="70">
+      <c r="AC5" s="57">
         <f t="shared" si="0"/>
         <v>97.638683913534166</v>
       </c>
-      <c r="AD5" s="70">
+      <c r="AD5" s="57">
         <f t="shared" si="0"/>
         <v>67.657597133579657</v>
       </c>
-      <c r="AE5" s="70">
+      <c r="AE5" s="57">
         <f t="shared" si="0"/>
         <v>87.535870243293829</v>
       </c>
-      <c r="AF5" s="70">
+      <c r="AF5" s="57">
         <f t="shared" si="0"/>
         <v>140.2253252935576</v>
       </c>
-      <c r="AG5" s="70">
+      <c r="AG5" s="57">
         <f t="shared" si="0"/>
         <v>79.007670182166819</v>
       </c>
-      <c r="AH5" s="70">
+      <c r="AH5" s="57">
         <f t="shared" si="0"/>
         <v>104.2152270994445</v>
       </c>
-      <c r="AI5" s="71">
+      <c r="AI5" s="58">
         <f>(V5-V13)/V5*100</f>
         <v>176.0482103725347</v>
       </c>
-      <c r="AJ5" s="72" t="s">
+      <c r="AJ5" s="88" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="2:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="73">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B6" s="59">
         <v>0.5</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -25225,61 +25225,61 @@
       <c r="U6" s="30">
         <v>19331</v>
       </c>
-      <c r="V6" s="68">
+      <c r="V6" s="55">
         <v>14659</v>
       </c>
-      <c r="X6" s="74">
+      <c r="X6" s="60">
         <f t="shared" si="0"/>
         <v>27.331509574732653</v>
       </c>
-      <c r="Y6" s="75">
+      <c r="Y6" s="61">
         <f t="shared" si="0"/>
         <v>33.096947159041775</v>
       </c>
-      <c r="Z6" s="75">
+      <c r="Z6" s="61">
         <f t="shared" si="0"/>
         <v>45.351900639819341</v>
       </c>
-      <c r="AA6" s="75">
+      <c r="AA6" s="61">
         <f t="shared" si="0"/>
         <v>50.21218254227329</v>
       </c>
-      <c r="AB6" s="75">
+      <c r="AB6" s="61">
         <f t="shared" si="0"/>
         <v>63.105080913009679</v>
       </c>
-      <c r="AC6" s="75">
+      <c r="AC6" s="61">
         <f t="shared" si="0"/>
         <v>93.952050789407735</v>
       </c>
-      <c r="AD6" s="75">
+      <c r="AD6" s="61">
         <f t="shared" si="0"/>
         <v>65.072955365315238</v>
       </c>
-      <c r="AE6" s="75">
+      <c r="AE6" s="61">
         <f t="shared" si="0"/>
         <v>83.818170957529418</v>
       </c>
-      <c r="AF6" s="75">
+      <c r="AF6" s="61">
         <f t="shared" si="0"/>
         <v>132.73751408186257</v>
       </c>
-      <c r="AG6" s="75">
+      <c r="AG6" s="61">
         <f t="shared" si="0"/>
         <v>75.495899949608315</v>
       </c>
-      <c r="AH6" s="75">
+      <c r="AH6" s="61">
         <f t="shared" si="0"/>
         <v>98.986084527442969</v>
       </c>
-      <c r="AI6" s="76">
+      <c r="AI6" s="62">
         <f t="shared" si="0"/>
         <v>164.40412033562998</v>
       </c>
-      <c r="AJ6" s="77"/>
+      <c r="AJ6" s="89"/>
     </row>
-    <row r="7" spans="2:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="73">
+    <row r="7" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B7" s="59">
         <v>0.5</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -25339,61 +25339,61 @@
       <c r="U7" s="30">
         <v>19964</v>
       </c>
-      <c r="V7" s="68">
+      <c r="V7" s="55">
         <v>15292</v>
       </c>
-      <c r="X7" s="74">
+      <c r="X7" s="60">
         <f t="shared" si="0"/>
         <v>27.040774468783329</v>
       </c>
-      <c r="Y7" s="75">
+      <c r="Y7" s="61">
         <f t="shared" si="0"/>
         <v>32.737382378100946</v>
       </c>
-      <c r="Z7" s="75">
+      <c r="Z7" s="61">
         <f t="shared" si="0"/>
         <v>44.816364481636448</v>
       </c>
-      <c r="AA7" s="75">
+      <c r="AA7" s="61">
         <f t="shared" si="0"/>
         <v>49.263387138098899</v>
       </c>
-      <c r="AB7" s="75">
+      <c r="AB7" s="61">
         <f t="shared" si="0"/>
         <v>61.812140928912576</v>
       </c>
-      <c r="AC7" s="75">
+      <c r="AC7" s="61">
         <f t="shared" si="0"/>
         <v>91.692483287135175</v>
       </c>
-      <c r="AD7" s="75">
+      <c r="AD7" s="61">
         <f t="shared" si="0"/>
         <v>63.486893943373431</v>
       </c>
-      <c r="AE7" s="75">
+      <c r="AE7" s="61">
         <f t="shared" si="0"/>
         <v>81.557686718977038</v>
       </c>
-      <c r="AF7" s="75">
+      <c r="AF7" s="61">
         <f t="shared" si="0"/>
         <v>128.26765367588359</v>
       </c>
-      <c r="AG7" s="75">
+      <c r="AG7" s="61">
         <f t="shared" si="0"/>
         <v>73.372807408066947</v>
       </c>
-      <c r="AH7" s="75">
+      <c r="AH7" s="61">
         <f t="shared" si="0"/>
         <v>95.852534562211972</v>
       </c>
-      <c r="AI7" s="76">
+      <c r="AI7" s="62">
         <f t="shared" si="0"/>
         <v>157.60528380852733</v>
       </c>
-      <c r="AJ7" s="77"/>
+      <c r="AJ7" s="89"/>
     </row>
-    <row r="8" spans="2:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="73">
+    <row r="8" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B8" s="59">
         <v>0.5</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -25453,61 +25453,61 @@
       <c r="U8" s="30">
         <v>20194</v>
       </c>
-      <c r="V8" s="68">
+      <c r="V8" s="55">
         <v>15522</v>
       </c>
-      <c r="X8" s="74">
+      <c r="X8" s="60">
         <f t="shared" si="0"/>
         <v>26.939109113199837</v>
       </c>
-      <c r="Y8" s="75">
+      <c r="Y8" s="61">
         <f t="shared" si="0"/>
         <v>32.609066121336063</v>
       </c>
-      <c r="Z8" s="75">
+      <c r="Z8" s="61">
         <f t="shared" si="0"/>
         <v>44.625497639107493</v>
       </c>
-      <c r="AA8" s="75">
+      <c r="AA8" s="61">
         <f t="shared" si="0"/>
         <v>48.924936386768451</v>
       </c>
-      <c r="AB8" s="75">
+      <c r="AB8" s="61">
         <f t="shared" si="0"/>
         <v>61.357702349869449</v>
       </c>
-      <c r="AC8" s="75">
+      <c r="AC8" s="61">
         <f t="shared" si="0"/>
         <v>90.892193308550191</v>
       </c>
-      <c r="AD8" s="75">
+      <c r="AD8" s="61">
         <f t="shared" si="0"/>
         <v>62.928251588045406</v>
       </c>
-      <c r="AE8" s="75">
+      <c r="AE8" s="61">
         <f t="shared" si="0"/>
         <v>80.770116265684351</v>
       </c>
-      <c r="AF8" s="75">
+      <c r="AF8" s="61">
         <f t="shared" si="0"/>
         <v>126.7135073128764</v>
       </c>
-      <c r="AG8" s="75">
+      <c r="AG8" s="61">
         <f t="shared" si="0"/>
         <v>72.624713555438035</v>
       </c>
-      <c r="AH8" s="75">
+      <c r="AH8" s="61">
         <f t="shared" si="0"/>
         <v>94.755868079627618</v>
       </c>
-      <c r="AI8" s="76">
+      <c r="AI8" s="62">
         <f t="shared" si="0"/>
         <v>155.26349697203969</v>
       </c>
-      <c r="AJ8" s="77"/>
+      <c r="AJ8" s="89"/>
     </row>
-    <row r="9" spans="2:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="73">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B9" s="59">
         <v>0.5</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -25567,61 +25567,61 @@
       <c r="U9" s="30">
         <v>21526</v>
       </c>
-      <c r="V9" s="68">
+      <c r="V9" s="55">
         <v>19693</v>
       </c>
-      <c r="X9" s="74">
+      <c r="X9" s="60">
         <f t="shared" si="0"/>
         <v>28.994178525226388</v>
       </c>
-      <c r="Y9" s="75">
+      <c r="Y9" s="61">
         <f t="shared" si="0"/>
         <v>33.122239813348884</v>
       </c>
-      <c r="Z9" s="75">
+      <c r="Z9" s="61">
         <f t="shared" si="0"/>
         <v>37.516115169746456</v>
       </c>
-      <c r="AA9" s="75">
+      <c r="AA9" s="61">
         <f t="shared" si="0"/>
         <v>52.186388871561348</v>
       </c>
-      <c r="AB9" s="75">
+      <c r="AB9" s="61">
         <f t="shared" si="0"/>
         <v>61.122825513969424</v>
       </c>
-      <c r="AC9" s="75">
+      <c r="AC9" s="61">
         <f t="shared" si="0"/>
         <v>71.124301675977648</v>
       </c>
-      <c r="AD9" s="75">
+      <c r="AD9" s="61">
         <f t="shared" si="0"/>
         <v>66.758060421426762</v>
       </c>
-      <c r="AE9" s="75">
+      <c r="AE9" s="61">
         <f t="shared" si="0"/>
         <v>79.434363249959134</v>
       </c>
-      <c r="AF9" s="75">
+      <c r="AF9" s="61">
         <f t="shared" si="0"/>
         <v>94.107961895801481</v>
       </c>
-      <c r="AG9" s="75">
+      <c r="AG9" s="61">
         <f t="shared" si="0"/>
         <v>76.754141872511667</v>
       </c>
-      <c r="AH9" s="75">
+      <c r="AH9" s="61">
         <f t="shared" si="0"/>
         <v>92.339496422930409</v>
       </c>
-      <c r="AI9" s="76">
+      <c r="AI9" s="62">
         <f t="shared" si="0"/>
         <v>110.82618189204285</v>
       </c>
-      <c r="AJ9" s="77"/>
+      <c r="AJ9" s="89"/>
     </row>
-    <row r="10" spans="2:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="73">
+    <row r="10" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B10" s="59">
         <v>0.5</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -25681,61 +25681,61 @@
       <c r="U10" s="30">
         <v>22977</v>
       </c>
-      <c r="V10" s="68">
+      <c r="V10" s="55">
         <v>21144</v>
       </c>
-      <c r="X10" s="74">
+      <c r="X10" s="60">
         <f t="shared" si="0"/>
         <v>28.322009796176328</v>
       </c>
-      <c r="Y10" s="75">
+      <c r="Y10" s="61">
         <f t="shared" si="0"/>
         <v>32.346241457858774</v>
       </c>
-      <c r="Z10" s="75">
+      <c r="Z10" s="61">
         <f t="shared" si="0"/>
         <v>36.60377358490566</v>
       </c>
-      <c r="AA10" s="75">
+      <c r="AA10" s="61">
         <f t="shared" si="0"/>
         <v>50.074809982644084</v>
       </c>
-      <c r="AB10" s="75">
+      <c r="AB10" s="61">
         <f t="shared" si="0"/>
         <v>58.512584368889165</v>
       </c>
-      <c r="AC10" s="75">
+      <c r="AC10" s="61">
         <f t="shared" si="0"/>
         <v>67.909054540605425</v>
       </c>
-      <c r="AD10" s="75">
+      <c r="AD10" s="61">
         <f t="shared" si="0"/>
         <v>63.333333333333329</v>
       </c>
-      <c r="AE10" s="75">
+      <c r="AE10" s="61">
         <f t="shared" si="0"/>
         <v>75.075972186453782</v>
       </c>
-      <c r="AF10" s="75">
+      <c r="AF10" s="61">
         <f t="shared" si="0"/>
         <v>88.567317802003203</v>
       </c>
-      <c r="AG10" s="75">
+      <c r="AG10" s="61">
         <f t="shared" si="0"/>
         <v>72.261185006045949</v>
       </c>
-      <c r="AH10" s="75">
+      <c r="AH10" s="61">
         <f t="shared" si="0"/>
         <v>86.508247377812594</v>
       </c>
-      <c r="AI10" s="76">
+      <c r="AI10" s="62">
         <f t="shared" si="0"/>
         <v>103.22077185017027</v>
       </c>
-      <c r="AJ10" s="77"/>
+      <c r="AJ10" s="89"/>
     </row>
-    <row r="11" spans="2:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="73">
+    <row r="11" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B11" s="59">
         <v>0.5</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -25795,61 +25795,61 @@
       <c r="U11" s="30">
         <v>23693</v>
       </c>
-      <c r="V11" s="68">
+      <c r="V11" s="55">
         <v>21860</v>
       </c>
-      <c r="X11" s="74">
+      <c r="X11" s="60">
         <f t="shared" si="0"/>
         <v>28.011248242462116</v>
       </c>
-      <c r="Y11" s="75">
+      <c r="Y11" s="61">
         <f t="shared" si="0"/>
         <v>31.966224366706875</v>
       </c>
-      <c r="Z11" s="75">
+      <c r="Z11" s="61">
         <f t="shared" si="0"/>
         <v>36.170036460059663</v>
       </c>
-      <c r="AA11" s="75">
+      <c r="AA11" s="61">
         <f t="shared" si="0"/>
         <v>49.093469459602183</v>
       </c>
-      <c r="AB11" s="75">
+      <c r="AB11" s="61">
         <f t="shared" si="0"/>
         <v>57.305244949650955</v>
       </c>
-      <c r="AC11" s="75">
+      <c r="AC11" s="61">
         <f t="shared" si="0"/>
         <v>66.429689538220714</v>
       </c>
-      <c r="AD11" s="75">
+      <c r="AD11" s="61">
         <f t="shared" si="0"/>
         <v>61.769404247321937</v>
       </c>
-      <c r="AE11" s="75">
+      <c r="AE11" s="61">
         <f t="shared" si="0"/>
         <v>73.099297893681054</v>
       </c>
-      <c r="AF11" s="75">
+      <c r="AF11" s="61">
         <f t="shared" si="0"/>
         <v>86.066896106689612</v>
       </c>
-      <c r="AG11" s="75">
+      <c r="AG11" s="61">
         <f t="shared" si="0"/>
         <v>70.238188513672341</v>
       </c>
-      <c r="AH11" s="75">
+      <c r="AH11" s="61">
         <f t="shared" si="0"/>
         <v>83.893977124045065</v>
       </c>
-      <c r="AI11" s="76">
+      <c r="AI11" s="62">
         <f t="shared" si="0"/>
         <v>99.839890210429999</v>
       </c>
-      <c r="AJ11" s="77"/>
+      <c r="AJ11" s="89"/>
     </row>
-    <row r="12" spans="2:36" s="28" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="73">
+    <row r="12" spans="2:36" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="59">
         <v>0.5</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -25909,61 +25909,61 @@
       <c r="U12" s="32">
         <v>24135</v>
       </c>
-      <c r="V12" s="78">
+      <c r="V12" s="63">
         <v>22301</v>
       </c>
-      <c r="X12" s="79">
+      <c r="X12" s="64">
         <f t="shared" si="0"/>
         <v>27.820015515903801</v>
       </c>
-      <c r="Y12" s="80">
+      <c r="Y12" s="65">
         <f t="shared" si="0"/>
         <v>31.741595464345608</v>
       </c>
-      <c r="Z12" s="80">
+      <c r="Z12" s="65">
         <f t="shared" si="0"/>
         <v>35.905239779550875</v>
       </c>
-      <c r="AA12" s="80">
+      <c r="AA12" s="65">
         <f t="shared" si="0"/>
         <v>48.507159835352773</v>
       </c>
-      <c r="AB12" s="80">
+      <c r="AB12" s="65">
         <f t="shared" si="0"/>
         <v>56.579027633746115</v>
       </c>
-      <c r="AC12" s="80">
+      <c r="AC12" s="65">
         <f t="shared" si="0"/>
         <v>65.548976702278281</v>
       </c>
-      <c r="AD12" s="80">
+      <c r="AD12" s="65">
         <f t="shared" si="0"/>
         <v>60.843206219918542</v>
       </c>
-      <c r="AE12" s="80">
+      <c r="AE12" s="65">
         <f t="shared" si="0"/>
         <v>71.930517173312282</v>
       </c>
-      <c r="AF12" s="80">
+      <c r="AF12" s="65">
         <f t="shared" si="0"/>
         <v>84.593023255813947</v>
       </c>
-      <c r="AG12" s="80">
+      <c r="AG12" s="65">
         <f t="shared" si="0"/>
         <v>69.042667898952558</v>
       </c>
-      <c r="AH12" s="80">
+      <c r="AH12" s="65">
         <f t="shared" si="0"/>
         <v>82.357571990884608</v>
       </c>
-      <c r="AI12" s="81">
+      <c r="AI12" s="66">
         <f t="shared" si="0"/>
         <v>97.861082462669842</v>
       </c>
-      <c r="AJ12" s="82"/>
+      <c r="AJ12" s="90"/>
     </row>
-    <row r="13" spans="2:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="73">
+    <row r="13" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B13" s="59">
         <v>0.25</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -26023,25 +26023,25 @@
       <c r="U13" s="30">
         <v>-774</v>
       </c>
-      <c r="V13" s="68">
+      <c r="V13" s="55">
         <v>-10411</v>
       </c>
-      <c r="X13" s="83"/>
-      <c r="Y13" s="83"/>
-      <c r="Z13" s="83"/>
-      <c r="AA13" s="83"/>
-      <c r="AB13" s="83"/>
-      <c r="AC13" s="83"/>
-      <c r="AD13" s="83"/>
-      <c r="AE13" s="83"/>
-      <c r="AF13" s="83"/>
-      <c r="AG13" s="83"/>
-      <c r="AH13" s="83"/>
-      <c r="AI13" s="83"/>
-      <c r="AJ13" s="84"/>
+      <c r="X13" s="67"/>
+      <c r="Y13" s="67"/>
+      <c r="Z13" s="67"/>
+      <c r="AA13" s="67"/>
+      <c r="AB13" s="67"/>
+      <c r="AC13" s="67"/>
+      <c r="AD13" s="67"/>
+      <c r="AE13" s="67"/>
+      <c r="AF13" s="67"/>
+      <c r="AG13" s="67"/>
+      <c r="AH13" s="67"/>
+      <c r="AI13" s="67"/>
+      <c r="AJ13" s="87"/>
     </row>
-    <row r="14" spans="2:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="73">
+    <row r="14" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B14" s="59">
         <v>0.25</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -26101,25 +26101,25 @@
       <c r="U14" s="30">
         <v>196</v>
       </c>
-      <c r="V14" s="68">
+      <c r="V14" s="55">
         <v>-9441</v>
       </c>
-      <c r="X14" s="83"/>
-      <c r="Y14" s="83"/>
-      <c r="Z14" s="83"/>
-      <c r="AA14" s="83"/>
-      <c r="AB14" s="83"/>
-      <c r="AC14" s="83"/>
-      <c r="AD14" s="83"/>
-      <c r="AE14" s="83"/>
-      <c r="AF14" s="83"/>
-      <c r="AG14" s="83"/>
-      <c r="AH14" s="83"/>
-      <c r="AI14" s="83"/>
-      <c r="AJ14" s="84"/>
+      <c r="X14" s="67"/>
+      <c r="Y14" s="67"/>
+      <c r="Z14" s="67"/>
+      <c r="AA14" s="67"/>
+      <c r="AB14" s="67"/>
+      <c r="AC14" s="67"/>
+      <c r="AD14" s="67"/>
+      <c r="AE14" s="67"/>
+      <c r="AF14" s="67"/>
+      <c r="AG14" s="67"/>
+      <c r="AH14" s="67"/>
+      <c r="AI14" s="67"/>
+      <c r="AJ14" s="87"/>
     </row>
-    <row r="15" spans="2:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="73">
+    <row r="15" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B15" s="59">
         <v>0.25</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -26179,25 +26179,25 @@
       <c r="U15" s="30">
         <v>828</v>
       </c>
-      <c r="V15" s="68">
+      <c r="V15" s="55">
         <v>-8809</v>
       </c>
-      <c r="X15" s="83"/>
-      <c r="Y15" s="83"/>
-      <c r="Z15" s="83"/>
-      <c r="AA15" s="83"/>
-      <c r="AB15" s="83"/>
-      <c r="AC15" s="83"/>
-      <c r="AD15" s="83"/>
-      <c r="AE15" s="83"/>
-      <c r="AF15" s="83"/>
-      <c r="AG15" s="83"/>
-      <c r="AH15" s="83"/>
-      <c r="AI15" s="83"/>
-      <c r="AJ15" s="84"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="67"/>
+      <c r="Z15" s="67"/>
+      <c r="AA15" s="67"/>
+      <c r="AB15" s="67"/>
+      <c r="AC15" s="67"/>
+      <c r="AD15" s="67"/>
+      <c r="AE15" s="67"/>
+      <c r="AF15" s="67"/>
+      <c r="AG15" s="67"/>
+      <c r="AH15" s="67"/>
+      <c r="AI15" s="67"/>
+      <c r="AJ15" s="87"/>
     </row>
-    <row r="16" spans="2:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="73">
+    <row r="16" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B16" s="59">
         <v>0.25</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -26257,25 +26257,25 @@
       <c r="U16" s="30">
         <v>1059</v>
       </c>
-      <c r="V16" s="68">
+      <c r="V16" s="55">
         <v>-8578</v>
       </c>
-      <c r="X16" s="83"/>
-      <c r="Y16" s="83"/>
-      <c r="Z16" s="83"/>
-      <c r="AA16" s="83"/>
-      <c r="AB16" s="83"/>
-      <c r="AC16" s="83"/>
-      <c r="AD16" s="83"/>
-      <c r="AE16" s="83"/>
-      <c r="AF16" s="83"/>
-      <c r="AG16" s="83"/>
-      <c r="AH16" s="83"/>
-      <c r="AI16" s="83"/>
-      <c r="AJ16" s="84"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="67"/>
+      <c r="Z16" s="67"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="67"/>
+      <c r="AC16" s="67"/>
+      <c r="AD16" s="67"/>
+      <c r="AE16" s="67"/>
+      <c r="AF16" s="67"/>
+      <c r="AG16" s="67"/>
+      <c r="AH16" s="67"/>
+      <c r="AI16" s="67"/>
+      <c r="AJ16" s="87"/>
     </row>
-    <row r="17" spans="2:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="73">
+    <row r="17" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B17" s="59">
         <v>0.25</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -26335,25 +26335,25 @@
       <c r="U17" s="30">
         <v>1649</v>
       </c>
-      <c r="V17" s="68">
+      <c r="V17" s="55">
         <v>-2132</v>
       </c>
-      <c r="X17" s="83"/>
-      <c r="Y17" s="83"/>
-      <c r="Z17" s="83"/>
-      <c r="AA17" s="83"/>
-      <c r="AB17" s="83"/>
-      <c r="AC17" s="83"/>
-      <c r="AD17" s="83"/>
-      <c r="AE17" s="83"/>
-      <c r="AF17" s="83"/>
-      <c r="AG17" s="83"/>
-      <c r="AH17" s="83"/>
-      <c r="AI17" s="83"/>
-      <c r="AJ17" s="84"/>
+      <c r="X17" s="67"/>
+      <c r="Y17" s="67"/>
+      <c r="Z17" s="67"/>
+      <c r="AA17" s="67"/>
+      <c r="AB17" s="67"/>
+      <c r="AC17" s="67"/>
+      <c r="AD17" s="67"/>
+      <c r="AE17" s="67"/>
+      <c r="AF17" s="67"/>
+      <c r="AG17" s="67"/>
+      <c r="AH17" s="67"/>
+      <c r="AI17" s="67"/>
+      <c r="AJ17" s="87"/>
     </row>
-    <row r="18" spans="2:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="73">
+    <row r="18" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B18" s="59">
         <v>0.25</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -26413,25 +26413,25 @@
       <c r="U18" s="30">
         <v>3100</v>
       </c>
-      <c r="V18" s="68">
+      <c r="V18" s="55">
         <v>-681</v>
       </c>
-      <c r="X18" s="83"/>
-      <c r="Y18" s="83"/>
-      <c r="Z18" s="83"/>
-      <c r="AA18" s="83"/>
-      <c r="AB18" s="83"/>
-      <c r="AC18" s="83"/>
-      <c r="AD18" s="83"/>
-      <c r="AE18" s="83"/>
-      <c r="AF18" s="83"/>
-      <c r="AG18" s="83"/>
-      <c r="AH18" s="83"/>
-      <c r="AI18" s="83"/>
-      <c r="AJ18" s="84"/>
+      <c r="X18" s="67"/>
+      <c r="Y18" s="67"/>
+      <c r="Z18" s="67"/>
+      <c r="AA18" s="67"/>
+      <c r="AB18" s="67"/>
+      <c r="AC18" s="67"/>
+      <c r="AD18" s="67"/>
+      <c r="AE18" s="67"/>
+      <c r="AF18" s="67"/>
+      <c r="AG18" s="67"/>
+      <c r="AH18" s="67"/>
+      <c r="AI18" s="67"/>
+      <c r="AJ18" s="87"/>
     </row>
-    <row r="19" spans="2:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="73">
+    <row r="19" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B19" s="59">
         <v>0.25</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -26491,25 +26491,25 @@
       <c r="U19" s="30">
         <v>3816</v>
       </c>
-      <c r="V19" s="68">
+      <c r="V19" s="55">
         <v>35</v>
       </c>
-      <c r="X19" s="83"/>
-      <c r="Y19" s="83"/>
-      <c r="Z19" s="83"/>
-      <c r="AA19" s="83"/>
-      <c r="AB19" s="83"/>
-      <c r="AC19" s="83"/>
-      <c r="AD19" s="83"/>
-      <c r="AE19" s="83"/>
-      <c r="AF19" s="83"/>
-      <c r="AG19" s="83"/>
-      <c r="AH19" s="83"/>
-      <c r="AI19" s="83"/>
-      <c r="AJ19" s="84"/>
+      <c r="X19" s="67"/>
+      <c r="Y19" s="67"/>
+      <c r="Z19" s="67"/>
+      <c r="AA19" s="67"/>
+      <c r="AB19" s="67"/>
+      <c r="AC19" s="67"/>
+      <c r="AD19" s="67"/>
+      <c r="AE19" s="67"/>
+      <c r="AF19" s="67"/>
+      <c r="AG19" s="67"/>
+      <c r="AH19" s="67"/>
+      <c r="AI19" s="67"/>
+      <c r="AJ19" s="87"/>
     </row>
-    <row r="20" spans="2:36" s="28" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="85">
+    <row r="20" spans="2:36" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="68">
         <v>0.25</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -26527,137 +26527,137 @@
       <c r="G20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="86">
+      <c r="H20" s="69">
         <v>9619</v>
       </c>
-      <c r="I20" s="86">
+      <c r="I20" s="69">
         <v>9619</v>
       </c>
-      <c r="J20" s="86">
+      <c r="J20" s="69">
         <v>9619</v>
       </c>
-      <c r="K20" s="86">
+      <c r="K20" s="69">
         <v>9304</v>
       </c>
-      <c r="L20" s="86">
+      <c r="L20" s="69">
         <v>8548</v>
       </c>
-      <c r="M20" s="86">
+      <c r="M20" s="69">
         <v>7792</v>
       </c>
-      <c r="N20" s="86">
+      <c r="N20" s="69">
         <v>8882</v>
       </c>
-      <c r="O20" s="86">
+      <c r="O20" s="69">
         <v>7118</v>
       </c>
-      <c r="P20" s="86">
+      <c r="P20" s="69">
         <v>5353</v>
       </c>
-      <c r="Q20" s="86">
+      <c r="Q20" s="69">
         <v>8461</v>
       </c>
-      <c r="R20" s="86">
+      <c r="R20" s="69">
         <v>5688</v>
       </c>
-      <c r="S20" s="86">
+      <c r="S20" s="69">
         <v>2915</v>
       </c>
-      <c r="T20" s="86">
+      <c r="T20" s="69">
         <v>8039</v>
       </c>
-      <c r="U20" s="86">
+      <c r="U20" s="69">
         <v>4258</v>
       </c>
-      <c r="V20" s="87">
+      <c r="V20" s="70">
         <v>477</v>
       </c>
-      <c r="X20" s="83"/>
-      <c r="Y20" s="83"/>
-      <c r="Z20" s="83"/>
-      <c r="AA20" s="83"/>
-      <c r="AB20" s="83"/>
-      <c r="AC20" s="83"/>
-      <c r="AD20" s="83"/>
-      <c r="AE20" s="83"/>
-      <c r="AF20" s="83"/>
-      <c r="AG20" s="83"/>
-      <c r="AH20" s="83"/>
-      <c r="AI20" s="83"/>
-      <c r="AJ20" s="84"/>
+      <c r="X20" s="67"/>
+      <c r="Y20" s="67"/>
+      <c r="Z20" s="67"/>
+      <c r="AA20" s="67"/>
+      <c r="AB20" s="67"/>
+      <c r="AC20" s="67"/>
+      <c r="AD20" s="67"/>
+      <c r="AE20" s="67"/>
+      <c r="AF20" s="67"/>
+      <c r="AG20" s="67"/>
+      <c r="AH20" s="67"/>
+      <c r="AI20" s="67"/>
+      <c r="AJ20" s="87"/>
     </row>
-    <row r="21" spans="2:36" s="28" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="X21" s="83"/>
-      <c r="Y21" s="83"/>
-      <c r="Z21" s="83"/>
-      <c r="AA21" s="83"/>
-      <c r="AB21" s="83"/>
-      <c r="AC21" s="83"/>
-      <c r="AD21" s="83"/>
-      <c r="AE21" s="83"/>
-      <c r="AF21" s="83"/>
-      <c r="AG21" s="83"/>
-      <c r="AH21" s="83"/>
-      <c r="AI21" s="83"/>
+    <row r="21" spans="2:36" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X21" s="67"/>
+      <c r="Y21" s="67"/>
+      <c r="Z21" s="67"/>
+      <c r="AA21" s="67"/>
+      <c r="AB21" s="67"/>
+      <c r="AC21" s="67"/>
+      <c r="AD21" s="67"/>
+      <c r="AE21" s="67"/>
+      <c r="AF21" s="67"/>
+      <c r="AG21" s="67"/>
+      <c r="AH21" s="67"/>
+      <c r="AI21" s="67"/>
     </row>
-    <row r="22" spans="2:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="88" t="s">
+    <row r="22" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B22" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="51" t="s">
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49" t="s">
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49" t="s">
+      <c r="L22" s="83"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49" t="s">
+      <c r="O22" s="83"/>
+      <c r="P22" s="83"/>
+      <c r="Q22" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="R22" s="49"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="49" t="s">
+      <c r="R22" s="83"/>
+      <c r="S22" s="83"/>
+      <c r="T22" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="U22" s="49"/>
-      <c r="V22" s="50"/>
-      <c r="X22" s="83"/>
-      <c r="Y22" s="83"/>
-      <c r="Z22" s="83"/>
-      <c r="AA22" s="83"/>
-      <c r="AB22" s="83"/>
-      <c r="AC22" s="83"/>
-      <c r="AD22" s="83"/>
-      <c r="AE22" s="83"/>
-      <c r="AF22" s="83"/>
-      <c r="AG22" s="83"/>
-      <c r="AH22" s="83"/>
-      <c r="AI22" s="83"/>
+      <c r="U22" s="83"/>
+      <c r="V22" s="84"/>
+      <c r="X22" s="67"/>
+      <c r="Y22" s="67"/>
+      <c r="Z22" s="67"/>
+      <c r="AA22" s="67"/>
+      <c r="AB22" s="67"/>
+      <c r="AC22" s="67"/>
+      <c r="AD22" s="67"/>
+      <c r="AE22" s="67"/>
+      <c r="AF22" s="67"/>
+      <c r="AG22" s="67"/>
+      <c r="AH22" s="67"/>
+      <c r="AI22" s="67"/>
     </row>
-    <row r="23" spans="2:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="89"/>
-      <c r="C23" s="44" t="s">
+    <row r="23" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B23" s="81"/>
+      <c r="C23" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="52"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="86"/>
       <c r="H23" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -26703,21 +26703,21 @@
       <c r="V23" s="4">
         <v>8.1999999999999993</v>
       </c>
-      <c r="X23" s="83"/>
-      <c r="Y23" s="83"/>
-      <c r="Z23" s="83"/>
-      <c r="AA23" s="83"/>
-      <c r="AB23" s="83"/>
-      <c r="AC23" s="83"/>
-      <c r="AD23" s="83"/>
-      <c r="AE23" s="83"/>
-      <c r="AF23" s="83"/>
-      <c r="AG23" s="83"/>
-      <c r="AH23" s="83"/>
-      <c r="AI23" s="83"/>
+      <c r="X23" s="67"/>
+      <c r="Y23" s="67"/>
+      <c r="Z23" s="67"/>
+      <c r="AA23" s="67"/>
+      <c r="AB23" s="67"/>
+      <c r="AC23" s="67"/>
+      <c r="AD23" s="67"/>
+      <c r="AE23" s="67"/>
+      <c r="AF23" s="67"/>
+      <c r="AG23" s="67"/>
+      <c r="AH23" s="67"/>
+      <c r="AI23" s="67"/>
     </row>
-    <row r="24" spans="2:36" s="28" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="90"/>
+    <row r="24" spans="2:36" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="82"/>
       <c r="C24" s="5" t="s">
         <v>7</v>
       </c>
@@ -26733,38 +26733,38 @@
       <c r="G24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="45" t="s">
+      <c r="H24" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
-      <c r="V24" s="52"/>
-      <c r="X24" s="66"/>
-      <c r="Y24" s="66"/>
-      <c r="Z24" s="66"/>
-      <c r="AA24" s="66"/>
-      <c r="AB24" s="66"/>
-      <c r="AC24" s="66"/>
-      <c r="AD24" s="66"/>
-      <c r="AE24" s="66"/>
-      <c r="AF24" s="66"/>
-      <c r="AG24" s="66"/>
-      <c r="AH24" s="66"/>
-      <c r="AI24" s="66"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="73"/>
+      <c r="T24" s="73"/>
+      <c r="U24" s="73"/>
+      <c r="V24" s="86"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="53"/>
+      <c r="AB24" s="53"/>
+      <c r="AC24" s="53"/>
+      <c r="AD24" s="53"/>
+      <c r="AE24" s="53"/>
+      <c r="AF24" s="53"/>
+      <c r="AG24" s="53"/>
+      <c r="AH24" s="53"/>
+      <c r="AI24" s="53"/>
     </row>
-    <row r="25" spans="2:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="67">
+    <row r="25" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B25" s="54">
         <v>0.5</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -26782,105 +26782,105 @@
       <c r="G25" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="55">
+      <c r="H25" s="45">
         <v>4176</v>
       </c>
-      <c r="I25" s="55">
+      <c r="I25" s="45">
         <v>4176</v>
       </c>
-      <c r="J25" s="55">
+      <c r="J25" s="45">
         <v>4176</v>
       </c>
-      <c r="K25" s="55">
+      <c r="K25" s="45">
         <v>6425</v>
       </c>
-      <c r="L25" s="55">
+      <c r="L25" s="45">
         <v>5925</v>
       </c>
-      <c r="M25" s="55">
+      <c r="M25" s="45">
         <v>4991</v>
       </c>
-      <c r="N25" s="55">
+      <c r="N25" s="45">
         <v>9421</v>
       </c>
-      <c r="O25" s="55">
+      <c r="O25" s="45">
         <v>8255</v>
       </c>
-      <c r="P25" s="55">
+      <c r="P25" s="45">
         <v>6075</v>
       </c>
-      <c r="Q25" s="55">
+      <c r="Q25" s="45">
         <v>12419</v>
       </c>
-      <c r="R25" s="55">
+      <c r="R25" s="45">
         <v>10587</v>
       </c>
-      <c r="S25" s="55">
+      <c r="S25" s="45">
         <v>7160</v>
       </c>
-      <c r="T25" s="55">
+      <c r="T25" s="45">
         <v>15416</v>
       </c>
-      <c r="U25" s="55">
+      <c r="U25" s="45">
         <v>12918</v>
       </c>
-      <c r="V25" s="59">
+      <c r="V25" s="49">
         <v>8246</v>
       </c>
-      <c r="X25" s="69">
+      <c r="X25" s="56">
         <f>(K25-K33)/K25*100</f>
         <v>51.299610894941637</v>
       </c>
-      <c r="Y25" s="70">
+      <c r="Y25" s="57">
         <f t="shared" ref="Y25:AH25" si="1">(L25-L33)/L25*100</f>
         <v>64.59071729957806</v>
       </c>
-      <c r="Z25" s="70">
+      <c r="Z25" s="57">
         <f t="shared" si="1"/>
         <v>96.573832899218587</v>
       </c>
-      <c r="AA25" s="70">
+      <c r="AA25" s="57">
         <f t="shared" si="1"/>
         <v>81.636768920496763</v>
       </c>
-      <c r="AB25" s="70">
+      <c r="AB25" s="57">
         <f t="shared" si="1"/>
         <v>108.17686250757117</v>
       </c>
-      <c r="AC25" s="70">
+      <c r="AC25" s="57">
         <f t="shared" si="1"/>
         <v>185.13580246913583</v>
       </c>
-      <c r="AD25" s="70">
+      <c r="AD25" s="57">
         <f t="shared" si="1"/>
         <v>97.318624687978101</v>
       </c>
-      <c r="AE25" s="70">
+      <c r="AE25" s="57">
         <f t="shared" si="1"/>
         <v>132.5493529800699</v>
       </c>
-      <c r="AF25" s="70">
+      <c r="AF25" s="57">
         <f t="shared" si="1"/>
         <v>246.82960893854749</v>
       </c>
-      <c r="AG25" s="70">
+      <c r="AG25" s="57">
         <f t="shared" si="1"/>
         <v>106.9019200830306</v>
       </c>
-      <c r="AH25" s="70">
+      <c r="AH25" s="57">
         <f t="shared" si="1"/>
         <v>148.13438612788357</v>
       </c>
-      <c r="AI25" s="71">
+      <c r="AI25" s="58">
         <f>(V25-V33)/V25*100</f>
         <v>292.27504244482174</v>
       </c>
-      <c r="AJ25" s="72" t="s">
+      <c r="AJ25" s="88" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="2:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="73">
+    <row r="26" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B26" s="59">
         <v>0.5</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -26898,103 +26898,103 @@
       <c r="G26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="55">
+      <c r="H26" s="45">
         <v>4176</v>
       </c>
-      <c r="I26" s="55">
+      <c r="I26" s="45">
         <v>4176</v>
       </c>
-      <c r="J26" s="55">
+      <c r="J26" s="45">
         <v>4176</v>
       </c>
-      <c r="K26" s="55">
+      <c r="K26" s="45">
         <v>6619</v>
       </c>
-      <c r="L26" s="55">
+      <c r="L26" s="45">
         <v>6119</v>
       </c>
-      <c r="M26" s="55">
+      <c r="M26" s="45">
         <v>5185</v>
       </c>
-      <c r="N26" s="55">
+      <c r="N26" s="45">
         <v>9873</v>
       </c>
-      <c r="O26" s="55">
+      <c r="O26" s="45">
         <v>8708</v>
       </c>
-      <c r="P26" s="55">
+      <c r="P26" s="45">
         <v>6527</v>
       </c>
-      <c r="Q26" s="55">
+      <c r="Q26" s="45">
         <v>13130</v>
       </c>
-      <c r="R26" s="55">
+      <c r="R26" s="45">
         <v>11298</v>
       </c>
-      <c r="S26" s="55">
+      <c r="S26" s="45">
         <v>7871</v>
       </c>
-      <c r="T26" s="55">
+      <c r="T26" s="45">
         <v>16386</v>
       </c>
-      <c r="U26" s="55">
+      <c r="U26" s="45">
         <v>13887</v>
       </c>
-      <c r="V26" s="59">
+      <c r="V26" s="49">
         <v>9215</v>
       </c>
-      <c r="X26" s="74">
+      <c r="X26" s="60">
         <f t="shared" ref="X26:X32" si="2">(K26-K34)/K26*100</f>
         <v>49.796041698141714</v>
       </c>
-      <c r="Y26" s="75">
+      <c r="Y26" s="61">
         <f t="shared" ref="Y26:Y32" si="3">(L26-L34)/L26*100</f>
         <v>62.542899166530475</v>
       </c>
-      <c r="Z26" s="75">
+      <c r="Z26" s="61">
         <f t="shared" ref="Z26:Z31" si="4">(M26-M34)/M26*100</f>
         <v>92.960462873674061</v>
       </c>
-      <c r="AA26" s="75">
+      <c r="AA26" s="61">
         <f t="shared" ref="AA26:AA32" si="5">(N26-N34)/N26*100</f>
         <v>77.889192747898306</v>
       </c>
-      <c r="AB26" s="75">
+      <c r="AB26" s="61">
         <f t="shared" ref="AB26:AB32" si="6">(O26-O34)/O26*100</f>
         <v>102.5493798805696</v>
       </c>
-      <c r="AC26" s="75">
+      <c r="AC26" s="61">
         <f t="shared" ref="AC26:AC32" si="7">(P26-P34)/P26*100</f>
         <v>172.31499923395128</v>
       </c>
-      <c r="AD26" s="75">
+      <c r="AD26" s="61">
         <f t="shared" ref="AD26:AD32" si="8">(Q26-Q34)/Q26*100</f>
         <v>92.048743335872047</v>
       </c>
-      <c r="AE26" s="75">
+      <c r="AE26" s="61">
         <f t="shared" ref="AE26:AE32" si="9">(R26-R34)/R26*100</f>
         <v>124.20782439369799</v>
       </c>
-      <c r="AF26" s="75">
+      <c r="AF26" s="61">
         <f t="shared" ref="AF26:AF32" si="10">(S26-S34)/S26*100</f>
         <v>224.53309617583534</v>
       </c>
-      <c r="AG26" s="75">
+      <c r="AG26" s="61">
         <f t="shared" ref="AG26:AG32" si="11">(T26-T34)/T26*100</f>
         <v>100.57976321249849</v>
       </c>
-      <c r="AH26" s="75">
+      <c r="AH26" s="61">
         <f t="shared" ref="AH26:AH32" si="12">(U26-U34)/U26*100</f>
         <v>137.79073954057753</v>
       </c>
-      <c r="AI26" s="76">
+      <c r="AI26" s="62">
         <f t="shared" ref="AI26:AI32" si="13">(V26-V34)/V26*100</f>
         <v>261.53011394465545</v>
       </c>
-      <c r="AJ26" s="77"/>
+      <c r="AJ26" s="89"/>
     </row>
-    <row r="27" spans="2:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="73">
+    <row r="27" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B27" s="59">
         <v>0.5</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -27012,103 +27012,103 @@
       <c r="G27" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="55">
+      <c r="H27" s="45">
         <v>4176</v>
       </c>
-      <c r="I27" s="55">
+      <c r="I27" s="45">
         <v>4176</v>
       </c>
-      <c r="J27" s="55">
+      <c r="J27" s="45">
         <v>4176</v>
       </c>
-      <c r="K27" s="55">
+      <c r="K27" s="45">
         <v>6746</v>
       </c>
-      <c r="L27" s="55">
+      <c r="L27" s="45">
         <v>6246</v>
       </c>
-      <c r="M27" s="55">
+      <c r="M27" s="45">
         <v>5312</v>
       </c>
-      <c r="N27" s="55">
+      <c r="N27" s="45">
         <v>10169</v>
       </c>
-      <c r="O27" s="55">
+      <c r="O27" s="45">
         <v>9003</v>
       </c>
-      <c r="P27" s="55">
+      <c r="P27" s="45">
         <v>6823</v>
       </c>
-      <c r="Q27" s="55">
+      <c r="Q27" s="45">
         <v>13594</v>
       </c>
-      <c r="R27" s="55">
+      <c r="R27" s="45">
         <v>11762</v>
       </c>
-      <c r="S27" s="55">
+      <c r="S27" s="45">
         <v>8335</v>
       </c>
-      <c r="T27" s="55">
+      <c r="T27" s="45">
         <v>17018</v>
       </c>
-      <c r="U27" s="55">
+      <c r="U27" s="45">
         <v>14520</v>
       </c>
-      <c r="V27" s="59">
+      <c r="V27" s="49">
         <v>9848</v>
       </c>
-      <c r="X27" s="74">
+      <c r="X27" s="60">
         <f t="shared" si="2"/>
         <v>48.858582863919359</v>
       </c>
-      <c r="Y27" s="75">
+      <c r="Y27" s="61">
         <f t="shared" si="3"/>
         <v>61.271213576689078</v>
       </c>
-      <c r="Z27" s="75">
+      <c r="Z27" s="61">
         <f t="shared" si="4"/>
         <v>90.73795180722891</v>
       </c>
-      <c r="AA27" s="75">
+      <c r="AA27" s="61">
         <f t="shared" si="5"/>
         <v>75.63182220473989</v>
       </c>
-      <c r="AB27" s="75">
+      <c r="AB27" s="61">
         <f t="shared" si="6"/>
         <v>99.189159169165833</v>
       </c>
-      <c r="AC27" s="75">
+      <c r="AC27" s="61">
         <f t="shared" si="7"/>
         <v>164.83951341052324</v>
       </c>
-      <c r="AD27" s="75">
+      <c r="AD27" s="61">
         <f t="shared" si="8"/>
         <v>88.906870678240395</v>
       </c>
-      <c r="AE27" s="75">
+      <c r="AE27" s="61">
         <f t="shared" si="9"/>
         <v>119.30794082639007</v>
       </c>
-      <c r="AF27" s="75">
+      <c r="AF27" s="61">
         <f t="shared" si="10"/>
         <v>212.03359328134374</v>
       </c>
-      <c r="AG27" s="75">
+      <c r="AG27" s="61">
         <f t="shared" si="11"/>
         <v>96.838641438476898</v>
       </c>
-      <c r="AH27" s="75">
+      <c r="AH27" s="61">
         <f t="shared" si="12"/>
         <v>131.78374655647383</v>
       </c>
-      <c r="AI27" s="76">
+      <c r="AI27" s="62">
         <f t="shared" si="13"/>
         <v>244.71974004874087</v>
       </c>
-      <c r="AJ27" s="77"/>
+      <c r="AJ27" s="89"/>
     </row>
-    <row r="28" spans="2:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="73">
+    <row r="28" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B28" s="59">
         <v>0.5</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -27126,103 +27126,103 @@
       <c r="G28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="55">
+      <c r="H28" s="45">
         <v>4176</v>
       </c>
-      <c r="I28" s="55">
+      <c r="I28" s="45">
         <v>4176</v>
       </c>
-      <c r="J28" s="55">
+      <c r="J28" s="45">
         <v>4176</v>
       </c>
-      <c r="K28" s="55">
+      <c r="K28" s="45">
         <v>6792</v>
       </c>
-      <c r="L28" s="55">
+      <c r="L28" s="45">
         <v>6292</v>
       </c>
-      <c r="M28" s="55">
+      <c r="M28" s="45">
         <v>5357</v>
       </c>
-      <c r="N28" s="55">
+      <c r="N28" s="45">
         <v>10276</v>
       </c>
-      <c r="O28" s="55">
+      <c r="O28" s="45">
         <v>9110</v>
       </c>
-      <c r="P28" s="55">
+      <c r="P28" s="45">
         <v>6930</v>
       </c>
-      <c r="Q28" s="55">
+      <c r="Q28" s="45">
         <v>13762</v>
       </c>
-      <c r="R28" s="55">
+      <c r="R28" s="45">
         <v>11930</v>
       </c>
-      <c r="S28" s="55">
+      <c r="S28" s="45">
         <v>8504</v>
       </c>
-      <c r="T28" s="55">
+      <c r="T28" s="45">
         <v>17249</v>
       </c>
-      <c r="U28" s="55">
+      <c r="U28" s="45">
         <v>14750</v>
       </c>
-      <c r="V28" s="59">
+      <c r="V28" s="49">
         <v>10078</v>
       </c>
-      <c r="X28" s="74">
+      <c r="X28" s="60">
         <f t="shared" si="2"/>
         <v>48.542402826855124</v>
       </c>
-      <c r="Y28" s="75">
+      <c r="Y28" s="61">
         <f t="shared" si="3"/>
         <v>60.823267641449462</v>
       </c>
-      <c r="Z28" s="75">
+      <c r="Z28" s="61">
         <f t="shared" si="4"/>
         <v>89.975732686204964</v>
       </c>
-      <c r="AA28" s="75">
+      <c r="AA28" s="61">
         <f t="shared" si="5"/>
         <v>74.844297391981314</v>
       </c>
-      <c r="AB28" s="75">
+      <c r="AB28" s="61">
         <f t="shared" si="6"/>
         <v>98.024149286498357</v>
       </c>
-      <c r="AC28" s="75">
+      <c r="AC28" s="61">
         <f t="shared" si="7"/>
         <v>162.29437229437229</v>
       </c>
-      <c r="AD28" s="75">
+      <c r="AD28" s="61">
         <f t="shared" si="8"/>
         <v>87.814271181514314</v>
       </c>
-      <c r="AE28" s="75">
+      <c r="AE28" s="61">
         <f t="shared" si="9"/>
         <v>117.61944677284157</v>
       </c>
-      <c r="AF28" s="75">
+      <c r="AF28" s="61">
         <f t="shared" si="10"/>
         <v>207.81984948259642</v>
       </c>
-      <c r="AG28" s="75">
+      <c r="AG28" s="61">
         <f t="shared" si="11"/>
         <v>95.547567974955072</v>
       </c>
-      <c r="AH28" s="75">
+      <c r="AH28" s="61">
         <f t="shared" si="12"/>
         <v>129.72881355932205</v>
       </c>
-      <c r="AI28" s="76">
+      <c r="AI28" s="62">
         <f t="shared" si="13"/>
         <v>239.13474895812664</v>
       </c>
-      <c r="AJ28" s="77"/>
+      <c r="AJ28" s="89"/>
     </row>
-    <row r="29" spans="2:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="73">
+    <row r="29" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B29" s="59">
         <v>0.5</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -27240,103 +27240,103 @@
       <c r="G29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="55">
+      <c r="H29" s="45">
         <v>4176</v>
       </c>
-      <c r="I29" s="55">
+      <c r="I29" s="45">
         <v>4176</v>
       </c>
-      <c r="J29" s="55">
+      <c r="J29" s="45">
         <v>4176</v>
       </c>
-      <c r="K29" s="55">
+      <c r="K29" s="45">
         <v>6924</v>
       </c>
-      <c r="L29" s="55">
+      <c r="L29" s="45">
         <v>6558</v>
       </c>
-      <c r="M29" s="55">
+      <c r="M29" s="45">
         <v>6191</v>
       </c>
-      <c r="N29" s="55">
+      <c r="N29" s="45">
         <v>10588</v>
       </c>
-      <c r="O29" s="55">
+      <c r="O29" s="45">
         <v>9732</v>
       </c>
-      <c r="P29" s="55">
+      <c r="P29" s="45">
         <v>8877</v>
       </c>
-      <c r="Q29" s="55">
+      <c r="Q29" s="45">
         <v>14251</v>
       </c>
-      <c r="R29" s="55">
+      <c r="R29" s="45">
         <v>12907</v>
       </c>
-      <c r="S29" s="55">
+      <c r="S29" s="45">
         <v>11563</v>
       </c>
-      <c r="T29" s="55">
+      <c r="T29" s="45">
         <v>17915</v>
       </c>
-      <c r="U29" s="55">
+      <c r="U29" s="45">
         <v>16082</v>
       </c>
-      <c r="V29" s="59">
+      <c r="V29" s="49">
         <v>14249</v>
       </c>
-      <c r="X29" s="74">
+      <c r="X29" s="60">
         <f t="shared" si="2"/>
         <v>51.776429809358746</v>
       </c>
-      <c r="Y29" s="75">
+      <c r="Y29" s="61">
         <f t="shared" si="3"/>
         <v>60.628240317169869</v>
       </c>
-      <c r="Z29" s="75">
+      <c r="Z29" s="61">
         <f t="shared" si="4"/>
         <v>70.505572605394931</v>
       </c>
-      <c r="AA29" s="75">
+      <c r="AA29" s="61">
         <f t="shared" si="5"/>
         <v>79.023422742727618</v>
       </c>
-      <c r="AB29" s="75">
+      <c r="AB29" s="61">
         <f t="shared" si="6"/>
         <v>95.314426633785459</v>
       </c>
-      <c r="AC29" s="75">
+      <c r="AC29" s="61">
         <f t="shared" si="7"/>
         <v>114.73470767151063</v>
       </c>
-      <c r="AD29" s="75">
+      <c r="AD29" s="61">
         <f t="shared" si="8"/>
         <v>92.253175215774334</v>
       </c>
-      <c r="AE29" s="75">
+      <c r="AE29" s="61">
         <f t="shared" si="9"/>
         <v>112.9309676919501</v>
       </c>
-      <c r="AF29" s="75">
+      <c r="AF29" s="61">
         <f t="shared" si="10"/>
         <v>138.41563608060193</v>
       </c>
-      <c r="AG29" s="75">
+      <c r="AG29" s="61">
         <f t="shared" si="11"/>
         <v>100.07814680435389</v>
       </c>
-      <c r="AH29" s="75">
+      <c r="AH29" s="61">
         <f t="shared" si="12"/>
         <v>123.59781121751026</v>
       </c>
-      <c r="AI29" s="76">
+      <c r="AI29" s="62">
         <f t="shared" si="13"/>
         <v>153.16864341357288</v>
       </c>
-      <c r="AJ29" s="77"/>
+      <c r="AJ29" s="89"/>
     </row>
-    <row r="30" spans="2:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="73">
+    <row r="30" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B30" s="59">
         <v>0.5</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -27354,103 +27354,103 @@
       <c r="G30" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="55">
+      <c r="H30" s="45">
         <v>4176</v>
       </c>
-      <c r="I30" s="55">
+      <c r="I30" s="45">
         <v>4176</v>
       </c>
-      <c r="J30" s="55">
+      <c r="J30" s="45">
         <v>4176</v>
       </c>
-      <c r="K30" s="55">
+      <c r="K30" s="45">
         <v>7215</v>
       </c>
-      <c r="L30" s="55">
+      <c r="L30" s="45">
         <v>6848</v>
       </c>
-      <c r="M30" s="55">
+      <c r="M30" s="45">
         <v>6481</v>
       </c>
-      <c r="N30" s="55">
+      <c r="N30" s="45">
         <v>11265</v>
       </c>
-      <c r="O30" s="55">
+      <c r="O30" s="45">
         <v>10410</v>
       </c>
-      <c r="P30" s="55">
+      <c r="P30" s="45">
         <v>9554</v>
       </c>
-      <c r="Q30" s="55">
+      <c r="Q30" s="45">
         <v>15316</v>
       </c>
-      <c r="R30" s="55">
+      <c r="R30" s="45">
         <v>13972</v>
       </c>
-      <c r="S30" s="55">
+      <c r="S30" s="45">
         <v>12627</v>
       </c>
-      <c r="T30" s="55">
+      <c r="T30" s="45">
         <v>19367</v>
       </c>
-      <c r="U30" s="55">
+      <c r="U30" s="45">
         <v>17534</v>
       </c>
-      <c r="V30" s="59">
+      <c r="V30" s="49">
         <v>15700</v>
       </c>
-      <c r="X30" s="74">
+      <c r="X30" s="60">
         <f t="shared" si="2"/>
         <v>49.702009702009704</v>
       </c>
-      <c r="Y30" s="75">
+      <c r="Y30" s="61">
         <f t="shared" si="3"/>
         <v>58.04614485981309</v>
       </c>
-      <c r="Z30" s="75">
+      <c r="Z30" s="61">
         <f t="shared" si="4"/>
         <v>67.350717481870078</v>
       </c>
-      <c r="AA30" s="75">
+      <c r="AA30" s="61">
         <f t="shared" si="5"/>
         <v>74.27430093209054</v>
       </c>
-      <c r="AB30" s="75">
+      <c r="AB30" s="61">
         <f t="shared" si="6"/>
         <v>89.106628242074919</v>
       </c>
-      <c r="AC30" s="75">
+      <c r="AC30" s="61">
         <f t="shared" si="7"/>
         <v>106.60456353359848</v>
       </c>
-      <c r="AD30" s="75">
+      <c r="AD30" s="61">
         <f t="shared" si="8"/>
         <v>85.844868111778524</v>
       </c>
-      <c r="AE30" s="75">
+      <c r="AE30" s="61">
         <f t="shared" si="9"/>
         <v>104.33008874892641</v>
       </c>
-      <c r="AF30" s="75">
+      <c r="AF30" s="61">
         <f t="shared" si="10"/>
         <v>126.75219767165598</v>
       </c>
-      <c r="AG30" s="75">
+      <c r="AG30" s="61">
         <f t="shared" si="11"/>
         <v>92.574998709144424</v>
       </c>
-      <c r="AH30" s="75">
+      <c r="AH30" s="61">
         <f t="shared" si="12"/>
         <v>113.36260978670012</v>
       </c>
-      <c r="AI30" s="76">
+      <c r="AI30" s="62">
         <f t="shared" si="13"/>
         <v>139.0063694267516</v>
       </c>
-      <c r="AJ30" s="77"/>
+      <c r="AJ30" s="89"/>
     </row>
-    <row r="31" spans="2:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="73">
+    <row r="31" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B31" s="59">
         <v>0.5</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -27468,103 +27468,103 @@
       <c r="G31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="55">
+      <c r="H31" s="45">
         <v>4176</v>
       </c>
-      <c r="I31" s="55">
+      <c r="I31" s="45">
         <v>4176</v>
       </c>
-      <c r="J31" s="55">
+      <c r="J31" s="45">
         <v>4176</v>
       </c>
-      <c r="K31" s="55">
+      <c r="K31" s="45">
         <v>7358</v>
       </c>
-      <c r="L31" s="55">
+      <c r="L31" s="45">
         <v>6991</v>
       </c>
-      <c r="M31" s="55">
+      <c r="M31" s="45">
         <v>6625</v>
       </c>
-      <c r="N31" s="55">
+      <c r="N31" s="45">
         <v>11599</v>
       </c>
-      <c r="O31" s="55">
+      <c r="O31" s="45">
         <v>10743</v>
       </c>
-      <c r="P31" s="55">
+      <c r="P31" s="45">
         <v>9888</v>
       </c>
-      <c r="Q31" s="55">
+      <c r="Q31" s="45">
         <v>15841</v>
       </c>
-      <c r="R31" s="55">
+      <c r="R31" s="45">
         <v>14496</v>
       </c>
-      <c r="S31" s="55">
+      <c r="S31" s="45">
         <v>13152</v>
       </c>
-      <c r="T31" s="55">
+      <c r="T31" s="45">
         <v>20082</v>
       </c>
-      <c r="U31" s="55">
+      <c r="U31" s="45">
         <v>18249</v>
       </c>
-      <c r="V31" s="59">
+      <c r="V31" s="49">
         <v>16416</v>
       </c>
-      <c r="X31" s="74">
+      <c r="X31" s="60">
         <f t="shared" si="2"/>
         <v>48.73606958412612</v>
       </c>
-      <c r="Y31" s="75">
+      <c r="Y31" s="61">
         <f t="shared" si="3"/>
         <v>56.85881848090402</v>
       </c>
-      <c r="Z31" s="75">
+      <c r="Z31" s="61">
         <f t="shared" si="4"/>
         <v>65.886792452830193</v>
       </c>
-      <c r="AA31" s="75">
+      <c r="AA31" s="61">
         <f t="shared" si="5"/>
         <v>72.135528924907319</v>
       </c>
-      <c r="AB31" s="75">
+      <c r="AB31" s="61">
         <f t="shared" si="6"/>
         <v>86.335288094573215</v>
       </c>
-      <c r="AC31" s="75">
+      <c r="AC31" s="61">
         <f t="shared" si="7"/>
         <v>103.00364077669903</v>
       </c>
-      <c r="AD31" s="75">
+      <c r="AD31" s="61">
         <f t="shared" si="8"/>
         <v>82.999810618016539</v>
       </c>
-      <c r="AE31" s="75">
+      <c r="AE31" s="61">
         <f t="shared" si="9"/>
         <v>100.55187637969094</v>
       </c>
-      <c r="AF31" s="75">
+      <c r="AF31" s="61">
         <f t="shared" si="10"/>
         <v>121.69251824817518</v>
       </c>
-      <c r="AG31" s="75">
+      <c r="AG31" s="61">
         <f t="shared" si="11"/>
         <v>89.273976695548257</v>
       </c>
-      <c r="AH31" s="75">
+      <c r="AH31" s="61">
         <f t="shared" si="12"/>
         <v>108.92103676913803</v>
       </c>
-      <c r="AI31" s="76">
+      <c r="AI31" s="62">
         <f t="shared" si="13"/>
         <v>132.94956140350877</v>
       </c>
-      <c r="AJ31" s="77"/>
+      <c r="AJ31" s="89"/>
     </row>
-    <row r="32" spans="2:36" s="28" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="73">
+    <row r="32" spans="2:36" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="59">
         <v>0.5</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -27582,103 +27582,103 @@
       <c r="G32" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="57">
+      <c r="H32" s="47">
         <v>4176</v>
       </c>
-      <c r="I32" s="57">
+      <c r="I32" s="47">
         <v>4176</v>
       </c>
-      <c r="J32" s="57">
+      <c r="J32" s="47">
         <v>4176</v>
       </c>
-      <c r="K32" s="57">
+      <c r="K32" s="47">
         <v>7446</v>
       </c>
-      <c r="L32" s="57">
+      <c r="L32" s="47">
         <v>7080</v>
       </c>
-      <c r="M32" s="57">
+      <c r="M32" s="47">
         <v>6713</v>
       </c>
-      <c r="N32" s="57">
+      <c r="N32" s="47">
         <v>11805</v>
       </c>
-      <c r="O32" s="57">
+      <c r="O32" s="47">
         <v>10950</v>
       </c>
-      <c r="P32" s="57">
+      <c r="P32" s="47">
         <v>10094</v>
       </c>
-      <c r="Q32" s="57">
+      <c r="Q32" s="47">
         <v>16165</v>
       </c>
-      <c r="R32" s="57">
+      <c r="R32" s="47">
         <v>14820</v>
       </c>
-      <c r="S32" s="57">
+      <c r="S32" s="47">
         <v>13476</v>
       </c>
-      <c r="T32" s="57">
+      <c r="T32" s="47">
         <v>20524</v>
       </c>
-      <c r="U32" s="57">
+      <c r="U32" s="47">
         <v>18691</v>
       </c>
-      <c r="V32" s="60">
+      <c r="V32" s="50">
         <v>16858</v>
       </c>
-      <c r="X32" s="79">
+      <c r="X32" s="64">
         <f t="shared" si="2"/>
         <v>48.1600859521891</v>
       </c>
-      <c r="Y32" s="80">
+      <c r="Y32" s="65">
         <f t="shared" si="3"/>
         <v>56.158192090395474</v>
       </c>
-      <c r="Z32" s="80">
+      <c r="Z32" s="65">
         <f>(M32-M40)/M32*100</f>
         <v>65.02308952778192</v>
       </c>
-      <c r="AA32" s="80">
+      <c r="AA32" s="65">
         <f t="shared" si="5"/>
         <v>70.876747141041932</v>
       </c>
-      <c r="AB32" s="80">
+      <c r="AB32" s="65">
         <f t="shared" si="6"/>
         <v>84.712328767123296</v>
       </c>
-      <c r="AC32" s="80">
+      <c r="AC32" s="65">
         <f t="shared" si="7"/>
         <v>100.90152565880722</v>
       </c>
-      <c r="AD32" s="80">
+      <c r="AD32" s="65">
         <f t="shared" si="8"/>
         <v>81.336220228889573</v>
       </c>
-      <c r="AE32" s="80">
+      <c r="AE32" s="65">
         <f t="shared" si="9"/>
         <v>98.35357624831309</v>
       </c>
-      <c r="AF32" s="80">
+      <c r="AF32" s="65">
         <f t="shared" si="10"/>
         <v>118.766696349065</v>
       </c>
-      <c r="AG32" s="80">
+      <c r="AG32" s="65">
         <f t="shared" si="11"/>
         <v>87.356265835119856</v>
       </c>
-      <c r="AH32" s="80">
+      <c r="AH32" s="65">
         <f t="shared" si="12"/>
         <v>106.34529987694611</v>
       </c>
-      <c r="AI32" s="81">
+      <c r="AI32" s="66">
         <f t="shared" si="13"/>
         <v>129.46375608019932</v>
       </c>
-      <c r="AJ32" s="82"/>
+      <c r="AJ32" s="90"/>
     </row>
-    <row r="33" spans="2:36" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="73">
+    <row r="33" spans="2:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="59">
         <v>0.25</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -27696,67 +27696,67 @@
       <c r="G33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="55">
+      <c r="H33" s="45">
         <v>4176</v>
       </c>
-      <c r="I33" s="55">
+      <c r="I33" s="45">
         <v>4176</v>
       </c>
-      <c r="J33" s="55">
+      <c r="J33" s="45">
         <v>4176</v>
       </c>
-      <c r="K33" s="55">
+      <c r="K33" s="45">
         <v>3129</v>
       </c>
-      <c r="L33" s="55">
+      <c r="L33" s="45">
         <v>2098</v>
       </c>
-      <c r="M33" s="55">
+      <c r="M33" s="45">
         <v>171</v>
       </c>
-      <c r="N33" s="55">
+      <c r="N33" s="45">
         <v>1730</v>
       </c>
-      <c r="O33" s="55">
+      <c r="O33" s="45">
         <v>-675</v>
       </c>
-      <c r="P33" s="55">
+      <c r="P33" s="45">
         <v>-5172</v>
       </c>
-      <c r="Q33" s="55">
+      <c r="Q33" s="45">
         <v>333</v>
       </c>
-      <c r="R33" s="55">
+      <c r="R33" s="45">
         <v>-3446</v>
       </c>
-      <c r="S33" s="55">
+      <c r="S33" s="45">
         <v>-10513</v>
       </c>
-      <c r="T33" s="55">
+      <c r="T33" s="45">
         <v>-1064</v>
       </c>
-      <c r="U33" s="55">
+      <c r="U33" s="45">
         <v>-6218</v>
       </c>
-      <c r="V33" s="59">
+      <c r="V33" s="49">
         <v>-15855</v>
       </c>
-      <c r="X33" s="83"/>
-      <c r="Y33" s="83"/>
-      <c r="Z33" s="83"/>
-      <c r="AA33" s="83"/>
-      <c r="AB33" s="83"/>
-      <c r="AC33" s="83"/>
-      <c r="AD33" s="83"/>
-      <c r="AE33" s="83"/>
-      <c r="AF33" s="83"/>
-      <c r="AG33" s="83"/>
-      <c r="AH33" s="83"/>
-      <c r="AI33" s="83"/>
-      <c r="AJ33" s="91"/>
+      <c r="X33" s="67"/>
+      <c r="Y33" s="67"/>
+      <c r="Z33" s="67"/>
+      <c r="AA33" s="67"/>
+      <c r="AB33" s="67"/>
+      <c r="AC33" s="67"/>
+      <c r="AD33" s="67"/>
+      <c r="AE33" s="67"/>
+      <c r="AF33" s="67"/>
+      <c r="AG33" s="67"/>
+      <c r="AH33" s="67"/>
+      <c r="AI33" s="67"/>
+      <c r="AJ33" s="71"/>
     </row>
-    <row r="34" spans="2:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="73">
+    <row r="34" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B34" s="59">
         <v>0.25</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -27774,67 +27774,67 @@
       <c r="G34" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="55">
+      <c r="H34" s="45">
         <v>4176</v>
       </c>
-      <c r="I34" s="55">
+      <c r="I34" s="45">
         <v>4176</v>
       </c>
-      <c r="J34" s="55">
+      <c r="J34" s="45">
         <v>4176</v>
       </c>
-      <c r="K34" s="55">
+      <c r="K34" s="45">
         <v>3323</v>
       </c>
-      <c r="L34" s="55">
+      <c r="L34" s="45">
         <v>2292</v>
       </c>
-      <c r="M34" s="55">
+      <c r="M34" s="45">
         <v>365</v>
       </c>
-      <c r="N34" s="55">
+      <c r="N34" s="45">
         <v>2183</v>
       </c>
-      <c r="O34" s="55">
+      <c r="O34" s="45">
         <v>-222</v>
       </c>
-      <c r="P34" s="55">
+      <c r="P34" s="45">
         <v>-4720</v>
       </c>
-      <c r="Q34" s="55">
+      <c r="Q34" s="45">
         <v>1044</v>
       </c>
-      <c r="R34" s="55">
+      <c r="R34" s="45">
         <v>-2735</v>
       </c>
-      <c r="S34" s="55">
+      <c r="S34" s="45">
         <v>-9802</v>
       </c>
-      <c r="T34" s="55">
+      <c r="T34" s="45">
         <v>-95</v>
       </c>
-      <c r="U34" s="55">
+      <c r="U34" s="45">
         <v>-5248</v>
       </c>
-      <c r="V34" s="59">
+      <c r="V34" s="49">
         <v>-14885</v>
       </c>
-      <c r="X34" s="83"/>
-      <c r="Y34" s="83"/>
-      <c r="Z34" s="83"/>
-      <c r="AA34" s="83"/>
-      <c r="AB34" s="83"/>
-      <c r="AC34" s="83"/>
-      <c r="AD34" s="83"/>
-      <c r="AE34" s="83"/>
-      <c r="AF34" s="83"/>
-      <c r="AG34" s="83"/>
-      <c r="AH34" s="83"/>
-      <c r="AI34" s="83"/>
-      <c r="AJ34" s="91"/>
+      <c r="X34" s="67"/>
+      <c r="Y34" s="67"/>
+      <c r="Z34" s="67"/>
+      <c r="AA34" s="67"/>
+      <c r="AB34" s="67"/>
+      <c r="AC34" s="67"/>
+      <c r="AD34" s="67"/>
+      <c r="AE34" s="67"/>
+      <c r="AF34" s="67"/>
+      <c r="AG34" s="67"/>
+      <c r="AH34" s="67"/>
+      <c r="AI34" s="67"/>
+      <c r="AJ34" s="71"/>
     </row>
-    <row r="35" spans="2:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="73">
+    <row r="35" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B35" s="59">
         <v>0.25</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -27852,67 +27852,67 @@
       <c r="G35" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="55">
+      <c r="H35" s="45">
         <v>4176</v>
       </c>
-      <c r="I35" s="55">
+      <c r="I35" s="45">
         <v>4176</v>
       </c>
-      <c r="J35" s="55">
+      <c r="J35" s="45">
         <v>4176</v>
       </c>
-      <c r="K35" s="55">
+      <c r="K35" s="45">
         <v>3450</v>
       </c>
-      <c r="L35" s="55">
+      <c r="L35" s="45">
         <v>2419</v>
       </c>
-      <c r="M35" s="55">
+      <c r="M35" s="45">
         <v>492</v>
       </c>
-      <c r="N35" s="55">
+      <c r="N35" s="45">
         <v>2478</v>
       </c>
-      <c r="O35" s="55">
+      <c r="O35" s="45">
         <v>73</v>
       </c>
-      <c r="P35" s="55">
+      <c r="P35" s="45">
         <v>-4424</v>
       </c>
-      <c r="Q35" s="55">
+      <c r="Q35" s="45">
         <v>1508</v>
       </c>
-      <c r="R35" s="55">
+      <c r="R35" s="45">
         <v>-2271</v>
       </c>
-      <c r="S35" s="55">
+      <c r="S35" s="45">
         <v>-9338</v>
       </c>
-      <c r="T35" s="55">
+      <c r="T35" s="45">
         <v>538</v>
       </c>
-      <c r="U35" s="55">
+      <c r="U35" s="45">
         <v>-4615</v>
       </c>
-      <c r="V35" s="59">
+      <c r="V35" s="49">
         <v>-14252</v>
       </c>
-      <c r="X35" s="83"/>
-      <c r="Y35" s="83"/>
-      <c r="Z35" s="83"/>
-      <c r="AA35" s="83"/>
-      <c r="AB35" s="83"/>
-      <c r="AC35" s="83"/>
-      <c r="AD35" s="83"/>
-      <c r="AE35" s="83"/>
-      <c r="AF35" s="83"/>
-      <c r="AG35" s="83"/>
-      <c r="AH35" s="83"/>
-      <c r="AI35" s="83"/>
-      <c r="AJ35" s="91"/>
+      <c r="X35" s="67"/>
+      <c r="Y35" s="67"/>
+      <c r="Z35" s="67"/>
+      <c r="AA35" s="67"/>
+      <c r="AB35" s="67"/>
+      <c r="AC35" s="67"/>
+      <c r="AD35" s="67"/>
+      <c r="AE35" s="67"/>
+      <c r="AF35" s="67"/>
+      <c r="AG35" s="67"/>
+      <c r="AH35" s="67"/>
+      <c r="AI35" s="67"/>
+      <c r="AJ35" s="71"/>
     </row>
-    <row r="36" spans="2:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="73">
+    <row r="36" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B36" s="59">
         <v>0.25</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -27930,67 +27930,67 @@
       <c r="G36" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="55">
+      <c r="H36" s="45">
         <v>4176</v>
       </c>
-      <c r="I36" s="55">
+      <c r="I36" s="45">
         <v>4176</v>
       </c>
-      <c r="J36" s="55">
+      <c r="J36" s="45">
         <v>4176</v>
       </c>
-      <c r="K36" s="55">
+      <c r="K36" s="45">
         <v>3495</v>
       </c>
-      <c r="L36" s="55">
+      <c r="L36" s="45">
         <v>2465</v>
       </c>
-      <c r="M36" s="55">
+      <c r="M36" s="45">
         <v>537</v>
       </c>
-      <c r="N36" s="55">
+      <c r="N36" s="45">
         <v>2585</v>
       </c>
-      <c r="O36" s="55">
+      <c r="O36" s="45">
         <v>180</v>
       </c>
-      <c r="P36" s="55">
+      <c r="P36" s="45">
         <v>-4317</v>
       </c>
-      <c r="Q36" s="55">
+      <c r="Q36" s="45">
         <v>1677</v>
       </c>
-      <c r="R36" s="55">
+      <c r="R36" s="45">
         <v>-2102</v>
       </c>
-      <c r="S36" s="55">
+      <c r="S36" s="45">
         <v>-9169</v>
       </c>
-      <c r="T36" s="55">
+      <c r="T36" s="45">
         <v>768</v>
       </c>
-      <c r="U36" s="55">
+      <c r="U36" s="45">
         <v>-4385</v>
       </c>
-      <c r="V36" s="59">
+      <c r="V36" s="49">
         <v>-14022</v>
       </c>
-      <c r="X36" s="83"/>
-      <c r="Y36" s="83"/>
-      <c r="Z36" s="83"/>
-      <c r="AA36" s="83"/>
-      <c r="AB36" s="83"/>
-      <c r="AC36" s="83"/>
-      <c r="AD36" s="83"/>
-      <c r="AE36" s="83"/>
-      <c r="AF36" s="83"/>
-      <c r="AG36" s="83"/>
-      <c r="AH36" s="83"/>
-      <c r="AI36" s="83"/>
-      <c r="AJ36" s="91"/>
+      <c r="X36" s="67"/>
+      <c r="Y36" s="67"/>
+      <c r="Z36" s="67"/>
+      <c r="AA36" s="67"/>
+      <c r="AB36" s="67"/>
+      <c r="AC36" s="67"/>
+      <c r="AD36" s="67"/>
+      <c r="AE36" s="67"/>
+      <c r="AF36" s="67"/>
+      <c r="AG36" s="67"/>
+      <c r="AH36" s="67"/>
+      <c r="AI36" s="67"/>
+      <c r="AJ36" s="71"/>
     </row>
-    <row r="37" spans="2:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="73">
+    <row r="37" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B37" s="59">
         <v>0.25</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -28008,67 +28008,67 @@
       <c r="G37" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H37" s="55">
+      <c r="H37" s="45">
         <v>4176</v>
       </c>
-      <c r="I37" s="55">
+      <c r="I37" s="45">
         <v>4176</v>
       </c>
-      <c r="J37" s="55">
+      <c r="J37" s="45">
         <v>4176</v>
       </c>
-      <c r="K37" s="55">
+      <c r="K37" s="45">
         <v>3339</v>
       </c>
-      <c r="L37" s="55">
+      <c r="L37" s="45">
         <v>2582</v>
       </c>
-      <c r="M37" s="55">
+      <c r="M37" s="45">
         <v>1826</v>
       </c>
-      <c r="N37" s="55">
+      <c r="N37" s="45">
         <v>2221</v>
       </c>
-      <c r="O37" s="55">
+      <c r="O37" s="45">
         <v>456</v>
       </c>
-      <c r="P37" s="55">
+      <c r="P37" s="45">
         <v>-1308</v>
       </c>
-      <c r="Q37" s="55">
+      <c r="Q37" s="45">
         <v>1104</v>
       </c>
-      <c r="R37" s="55">
+      <c r="R37" s="45">
         <v>-1669</v>
       </c>
-      <c r="S37" s="55">
+      <c r="S37" s="45">
         <v>-4442</v>
       </c>
-      <c r="T37" s="55">
+      <c r="T37" s="45">
         <v>-14</v>
       </c>
-      <c r="U37" s="55">
+      <c r="U37" s="45">
         <v>-3795</v>
       </c>
-      <c r="V37" s="59">
+      <c r="V37" s="49">
         <v>-7576</v>
       </c>
-      <c r="X37" s="83"/>
-      <c r="Y37" s="83"/>
-      <c r="Z37" s="83"/>
-      <c r="AA37" s="83"/>
-      <c r="AB37" s="83"/>
-      <c r="AC37" s="83"/>
-      <c r="AD37" s="83"/>
-      <c r="AE37" s="83"/>
-      <c r="AF37" s="83"/>
-      <c r="AG37" s="83"/>
-      <c r="AH37" s="83"/>
-      <c r="AI37" s="83"/>
-      <c r="AJ37" s="91"/>
+      <c r="X37" s="67"/>
+      <c r="Y37" s="67"/>
+      <c r="Z37" s="67"/>
+      <c r="AA37" s="67"/>
+      <c r="AB37" s="67"/>
+      <c r="AC37" s="67"/>
+      <c r="AD37" s="67"/>
+      <c r="AE37" s="67"/>
+      <c r="AF37" s="67"/>
+      <c r="AG37" s="67"/>
+      <c r="AH37" s="67"/>
+      <c r="AI37" s="67"/>
+      <c r="AJ37" s="71"/>
     </row>
-    <row r="38" spans="2:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="73">
+    <row r="38" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B38" s="59">
         <v>0.25</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -28086,67 +28086,67 @@
       <c r="G38" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="55">
+      <c r="H38" s="45">
         <v>4176</v>
       </c>
-      <c r="I38" s="55">
+      <c r="I38" s="45">
         <v>4176</v>
       </c>
-      <c r="J38" s="55">
+      <c r="J38" s="45">
         <v>4176</v>
       </c>
-      <c r="K38" s="55">
+      <c r="K38" s="45">
         <v>3629</v>
       </c>
-      <c r="L38" s="55">
+      <c r="L38" s="45">
         <v>2873</v>
       </c>
-      <c r="M38" s="55">
+      <c r="M38" s="45">
         <v>2116</v>
       </c>
-      <c r="N38" s="55">
+      <c r="N38" s="45">
         <v>2898</v>
       </c>
-      <c r="O38" s="55">
+      <c r="O38" s="45">
         <v>1134</v>
       </c>
-      <c r="P38" s="55">
+      <c r="P38" s="45">
         <v>-631</v>
       </c>
-      <c r="Q38" s="55">
+      <c r="Q38" s="45">
         <v>2168</v>
       </c>
-      <c r="R38" s="55">
+      <c r="R38" s="45">
         <v>-605</v>
       </c>
-      <c r="S38" s="55">
+      <c r="S38" s="45">
         <v>-3378</v>
       </c>
-      <c r="T38" s="55">
+      <c r="T38" s="45">
         <v>1438</v>
       </c>
-      <c r="U38" s="55">
+      <c r="U38" s="45">
         <v>-2343</v>
       </c>
-      <c r="V38" s="59">
+      <c r="V38" s="49">
         <v>-6124</v>
       </c>
-      <c r="X38" s="83"/>
-      <c r="Y38" s="83"/>
-      <c r="Z38" s="83"/>
-      <c r="AA38" s="83"/>
-      <c r="AB38" s="83"/>
-      <c r="AC38" s="83"/>
-      <c r="AD38" s="83"/>
-      <c r="AE38" s="83"/>
-      <c r="AF38" s="83"/>
-      <c r="AG38" s="83"/>
-      <c r="AH38" s="83"/>
-      <c r="AI38" s="83"/>
-      <c r="AJ38" s="91"/>
+      <c r="X38" s="67"/>
+      <c r="Y38" s="67"/>
+      <c r="Z38" s="67"/>
+      <c r="AA38" s="67"/>
+      <c r="AB38" s="67"/>
+      <c r="AC38" s="67"/>
+      <c r="AD38" s="67"/>
+      <c r="AE38" s="67"/>
+      <c r="AF38" s="67"/>
+      <c r="AG38" s="67"/>
+      <c r="AH38" s="67"/>
+      <c r="AI38" s="67"/>
+      <c r="AJ38" s="71"/>
     </row>
-    <row r="39" spans="2:36" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="73">
+    <row r="39" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B39" s="59">
         <v>0.25</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -28164,67 +28164,67 @@
       <c r="G39" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="55">
+      <c r="H39" s="45">
         <v>4176</v>
       </c>
-      <c r="I39" s="55">
+      <c r="I39" s="45">
         <v>4176</v>
       </c>
-      <c r="J39" s="55">
+      <c r="J39" s="45">
         <v>4176</v>
       </c>
-      <c r="K39" s="55">
+      <c r="K39" s="45">
         <v>3772</v>
       </c>
-      <c r="L39" s="55">
+      <c r="L39" s="45">
         <v>3016</v>
       </c>
-      <c r="M39" s="55">
+      <c r="M39" s="45">
         <v>2260</v>
       </c>
-      <c r="N39" s="55">
+      <c r="N39" s="45">
         <v>3232</v>
       </c>
-      <c r="O39" s="55">
+      <c r="O39" s="45">
         <v>1468</v>
       </c>
-      <c r="P39" s="55">
+      <c r="P39" s="45">
         <v>-297</v>
       </c>
-      <c r="Q39" s="55">
+      <c r="Q39" s="45">
         <v>2693</v>
       </c>
-      <c r="R39" s="55">
+      <c r="R39" s="45">
         <v>-80</v>
       </c>
-      <c r="S39" s="55">
+      <c r="S39" s="45">
         <v>-2853</v>
       </c>
-      <c r="T39" s="55">
+      <c r="T39" s="45">
         <v>2154</v>
       </c>
-      <c r="U39" s="55">
+      <c r="U39" s="45">
         <v>-1628</v>
       </c>
-      <c r="V39" s="59">
+      <c r="V39" s="49">
         <v>-5409</v>
       </c>
-      <c r="X39" s="83"/>
-      <c r="Y39" s="83"/>
-      <c r="Z39" s="83"/>
-      <c r="AA39" s="83"/>
-      <c r="AB39" s="83"/>
-      <c r="AC39" s="83"/>
-      <c r="AD39" s="83"/>
-      <c r="AE39" s="83"/>
-      <c r="AF39" s="83"/>
-      <c r="AG39" s="83"/>
-      <c r="AH39" s="83"/>
-      <c r="AI39" s="83"/>
-      <c r="AJ39" s="91"/>
+      <c r="X39" s="67"/>
+      <c r="Y39" s="67"/>
+      <c r="Z39" s="67"/>
+      <c r="AA39" s="67"/>
+      <c r="AB39" s="67"/>
+      <c r="AC39" s="67"/>
+      <c r="AD39" s="67"/>
+      <c r="AE39" s="67"/>
+      <c r="AF39" s="67"/>
+      <c r="AG39" s="67"/>
+      <c r="AH39" s="67"/>
+      <c r="AI39" s="67"/>
+      <c r="AJ39" s="71"/>
     </row>
-    <row r="40" spans="2:36" s="28" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="85">
+    <row r="40" spans="2:36" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="68">
         <v>0.25</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -28242,67 +28242,72 @@
       <c r="G40" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H40" s="61">
+      <c r="H40" s="51">
         <v>4176</v>
       </c>
-      <c r="I40" s="61">
+      <c r="I40" s="51">
         <v>4176</v>
       </c>
-      <c r="J40" s="61">
+      <c r="J40" s="51">
         <v>4176</v>
       </c>
-      <c r="K40" s="61">
+      <c r="K40" s="51">
         <v>3860</v>
       </c>
-      <c r="L40" s="61">
+      <c r="L40" s="51">
         <v>3104</v>
       </c>
-      <c r="M40" s="61">
+      <c r="M40" s="51">
         <v>2348</v>
       </c>
-      <c r="N40" s="61">
+      <c r="N40" s="51">
         <v>3438</v>
       </c>
-      <c r="O40" s="61">
+      <c r="O40" s="51">
         <v>1674</v>
       </c>
-      <c r="P40" s="61">
+      <c r="P40" s="51">
         <v>-91</v>
       </c>
-      <c r="Q40" s="61">
+      <c r="Q40" s="51">
         <v>3017</v>
       </c>
-      <c r="R40" s="61">
+      <c r="R40" s="51">
         <v>244</v>
       </c>
-      <c r="S40" s="61">
+      <c r="S40" s="51">
         <v>-2529</v>
       </c>
-      <c r="T40" s="61">
+      <c r="T40" s="51">
         <v>2595</v>
       </c>
-      <c r="U40" s="61">
+      <c r="U40" s="51">
         <v>-1186</v>
       </c>
-      <c r="V40" s="62">
+      <c r="V40" s="52">
         <v>-4967</v>
       </c>
-      <c r="X40" s="83"/>
-      <c r="Y40" s="83"/>
-      <c r="Z40" s="83"/>
-      <c r="AA40" s="83"/>
-      <c r="AB40" s="83"/>
-      <c r="AC40" s="83"/>
-      <c r="AD40" s="83"/>
-      <c r="AE40" s="83"/>
-      <c r="AF40" s="83"/>
-      <c r="AG40" s="83"/>
-      <c r="AH40" s="83"/>
-      <c r="AI40" s="83"/>
-      <c r="AJ40" s="91"/>
+      <c r="X40" s="67"/>
+      <c r="Y40" s="67"/>
+      <c r="Z40" s="67"/>
+      <c r="AA40" s="67"/>
+      <c r="AB40" s="67"/>
+      <c r="AC40" s="67"/>
+      <c r="AD40" s="67"/>
+      <c r="AE40" s="67"/>
+      <c r="AF40" s="67"/>
+      <c r="AG40" s="67"/>
+      <c r="AH40" s="67"/>
+      <c r="AI40" s="67"/>
+      <c r="AJ40" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AJ13:AJ20"/>
+    <mergeCell ref="AJ5:AJ12"/>
+    <mergeCell ref="AJ25:AJ32"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="C2:G2"/>
@@ -28319,11 +28324,6 @@
     <mergeCell ref="Q22:S22"/>
     <mergeCell ref="T22:V22"/>
     <mergeCell ref="T2:V2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AJ13:AJ20"/>
-    <mergeCell ref="AJ5:AJ12"/>
-    <mergeCell ref="AJ25:AJ32"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:V20">
     <cfRule type="colorScale" priority="2">
@@ -28362,17 +28362,17 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="53.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="14"/>
+    <col min="4" max="4" width="17.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
         <v>55</v>
       </c>
@@ -28386,21 +28386,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="53" t="s">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
         <v>96</v>
       </c>
@@ -28411,7 +28411,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="s">
         <v>97</v>
       </c>
@@ -28422,7 +28422,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
         <v>99</v>
       </c>
@@ -28433,7 +28433,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="17" t="s">
         <v>98</v>
       </c>
@@ -28445,21 +28445,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="53" t="s">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="14" t="s">
         <v>72</v>
       </c>
@@ -28473,7 +28473,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="14" t="s">
         <v>73</v>
       </c>
@@ -28487,7 +28487,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="14" t="s">
         <v>74</v>
       </c>
@@ -28501,7 +28501,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="14" t="s">
         <v>75</v>
       </c>
@@ -28515,7 +28515,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="14" t="s">
         <v>76</v>
       </c>
@@ -28529,7 +28529,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="14" t="s">
         <v>77</v>
       </c>
@@ -28543,7 +28543,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="14" t="s">
         <v>83</v>
       </c>
@@ -28557,7 +28557,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="17" t="s">
         <v>82</v>
       </c>
@@ -28571,18 +28571,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E19" s="19"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="53" t="s">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="14" t="s">
         <v>71</v>
       </c>
@@ -28596,7 +28596,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="14" t="s">
         <v>67</v>
       </c>
@@ -28610,7 +28610,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="14" t="s">
         <v>31</v>
       </c>
@@ -28624,7 +28624,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="14" t="s">
         <v>32</v>
       </c>
@@ -28638,7 +28638,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="14" t="s">
         <v>38</v>
       </c>
@@ -28652,7 +28652,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="14" t="s">
         <v>36</v>
       </c>
@@ -28666,7 +28666,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="14" t="s">
         <v>33</v>
       </c>
@@ -28680,7 +28680,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="14" t="s">
         <v>37</v>
       </c>
@@ -28694,7 +28694,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="14" t="s">
         <v>101</v>
       </c>
@@ -28708,7 +28708,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="17" t="s">
         <v>64</v>
       </c>
@@ -28722,18 +28722,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E31" s="19"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="53" t="s">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="14" t="s">
         <v>58</v>
       </c>
@@ -28747,7 +28747,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="14" t="s">
         <v>84</v>
       </c>
@@ -28761,7 +28761,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="14" t="s">
         <v>56</v>
       </c>
@@ -28775,7 +28775,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="17" t="s">
         <v>35</v>
       </c>
@@ -28789,18 +28789,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C37" s="25"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="53" t="s">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="14" t="s">
         <v>39</v>
       </c>
@@ -28814,7 +28814,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="14" t="s">
         <v>45</v>
       </c>
@@ -28828,7 +28828,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="14" t="s">
         <v>44</v>
       </c>
@@ -28842,7 +28842,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="14" t="s">
         <v>43</v>
       </c>
@@ -28856,7 +28856,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="14" t="s">
         <v>42</v>
       </c>
@@ -28870,7 +28870,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="14" t="s">
         <v>46</v>
       </c>
@@ -28884,7 +28884,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="14" t="s">
         <v>47</v>
       </c>
@@ -28898,7 +28898,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="14" t="s">
         <v>78</v>
       </c>
@@ -28912,7 +28912,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="14" t="s">
         <v>48</v>
       </c>
@@ -28926,7 +28926,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="14" t="s">
         <v>49</v>
       </c>
@@ -28940,7 +28940,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="14" t="s">
         <v>51</v>
       </c>
@@ -28954,7 +28954,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="14" t="s">
         <v>62</v>
       </c>
@@ -28968,7 +28968,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="17" t="s">
         <v>65</v>
       </c>
